--- a/raw_data/2022 BAP FX Summary.xlsx
+++ b/raw_data/2022 BAP FX Summary.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="FEBRUARY" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="JANUARY" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="MARCH" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="FEBRUARY" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="JANUARY" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>TIME</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>FX SETTLEMENT RATE</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
   </si>
 </sst>
 </file>
@@ -162,6 +166,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -377,80 +385,80 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <f>workday("02/02/2022",0)</f>
-        <v>44594</v>
+        <f>workday("03/01/2022",0)</f>
+        <v>44621</v>
       </c>
       <c r="C1" s="2">
         <f t="shared" ref="C1:T1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
-        <v>44595</v>
+        <v>44622</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="1"/>
-        <v>44596</v>
+        <v>44623</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="1"/>
-        <v>44599</v>
+        <v>44624</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="1"/>
-        <v>44600</v>
+        <v>44627</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="1"/>
-        <v>44601</v>
+        <v>44628</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="1"/>
-        <v>44602</v>
+        <v>44629</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="1"/>
-        <v>44603</v>
+        <v>44630</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="1"/>
-        <v>44606</v>
+        <v>44631</v>
       </c>
       <c r="K1" s="2">
         <f t="shared" si="1"/>
-        <v>44607</v>
+        <v>44634</v>
       </c>
       <c r="L1" s="2">
         <f t="shared" si="1"/>
-        <v>44608</v>
+        <v>44635</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" si="1"/>
-        <v>44609</v>
+        <v>44636</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="1"/>
-        <v>44610</v>
+        <v>44637</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="1"/>
-        <v>44613</v>
+        <v>44638</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="1"/>
-        <v>44614</v>
+        <v>44641</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="1"/>
-        <v>44615</v>
+        <v>44642</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="1"/>
-        <v>44616</v>
+        <v>44643</v>
       </c>
       <c r="S1" s="2">
         <f t="shared" si="1"/>
-        <v>44617</v>
+        <v>44644</v>
       </c>
       <c r="T1" s="2">
         <f t="shared" si="1"/>
-        <v>44620</v>
+        <v>44645</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -461,18 +469,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.3752662037037037</v>
+        <v>0.3759953703703704</v>
       </c>
       <c r="C2" s="4">
-        <v>0.3765162037037037</v>
+        <v>0.3753240740740741</v>
       </c>
       <c r="D2" s="4">
-        <v>0.3771412037037037</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>0.37971064814814814</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3754166666666667</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.3753587962962963</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.3751851851851852</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.37528935185185186</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -483,7 +499,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -494,18 +510,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>51.05</v>
+        <v>51.24</v>
       </c>
       <c r="C3" s="6">
-        <v>51.0</v>
+        <v>51.35</v>
       </c>
       <c r="D3" s="6">
-        <v>51.0</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+        <v>51.43</v>
+      </c>
+      <c r="E3" s="6">
+        <v>51.65</v>
+      </c>
+      <c r="F3" s="6">
+        <v>51.9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>52.25</v>
+      </c>
+      <c r="H3" s="6">
+        <v>52.28</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -526,18 +550,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>51.18</v>
+        <v>51.295</v>
       </c>
       <c r="C4" s="6">
-        <v>51.1</v>
+        <v>51.455</v>
       </c>
       <c r="D4" s="6">
-        <v>51.14</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+        <v>51.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>51.75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>52.19</v>
+      </c>
+      <c r="G4" s="6">
+        <v>52.34</v>
+      </c>
+      <c r="H4" s="6">
+        <v>52.31</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -558,18 +590,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>50.99</v>
+        <v>51.21</v>
       </c>
       <c r="C5" s="6">
-        <v>50.92</v>
+        <v>51.32</v>
       </c>
       <c r="D5" s="6">
-        <v>50.95</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>51.42</v>
+      </c>
+      <c r="E5" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>51.85</v>
+      </c>
+      <c r="G5" s="6">
+        <v>52.01</v>
+      </c>
+      <c r="H5" s="6">
+        <v>52.15</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -590,18 +630,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>51.045</v>
+        <v>51.23</v>
       </c>
       <c r="C6" s="6">
-        <v>51.05</v>
+        <v>51.42</v>
       </c>
       <c r="D6" s="6">
-        <v>51.14</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+        <v>51.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>51.74</v>
+      </c>
+      <c r="F6" s="6">
+        <v>52.18</v>
+      </c>
+      <c r="G6" s="6">
+        <v>52.32</v>
+      </c>
+      <c r="H6" s="6">
+        <v>52.23</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -622,18 +670,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>51.118</v>
+        <v>51.253</v>
       </c>
       <c r="C7" s="6">
-        <v>51.061</v>
+        <v>51.378</v>
       </c>
       <c r="D7" s="6">
-        <v>51.02</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>51.461</v>
+      </c>
+      <c r="E7" s="6">
+        <v>51.689</v>
+      </c>
+      <c r="F7" s="6">
+        <v>52.001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>52.159</v>
+      </c>
+      <c r="H7" s="6">
+        <v>52.253</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -654,18 +710,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>660.86</v>
+        <v>424.67</v>
       </c>
       <c r="C8" s="6">
-        <v>495.0</v>
+        <v>612.0</v>
       </c>
       <c r="D8" s="6">
-        <v>449.0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+        <v>382.25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>472.22</v>
+      </c>
+      <c r="F8" s="6">
+        <v>908.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>698.25</v>
+      </c>
+      <c r="H8" s="6">
+        <v>510.92</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -686,18 +750,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>51.082</v>
+        <v>51.246</v>
       </c>
       <c r="C9" s="6">
-        <v>51.023</v>
+        <v>51.411</v>
       </c>
       <c r="D9" s="6">
-        <v>51.038</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>51.478</v>
+      </c>
+      <c r="E9" s="6">
+        <v>51.705</v>
+      </c>
+      <c r="F9" s="6">
+        <v>52.141</v>
+      </c>
+      <c r="G9" s="6">
+        <v>52.234</v>
+      </c>
+      <c r="H9" s="6">
+        <v>52.227</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -718,18 +790,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>526.3</v>
+        <v>517.54</v>
       </c>
       <c r="C10" s="6">
-        <v>557.36</v>
+        <v>420.66</v>
       </c>
       <c r="D10" s="6">
-        <v>443.5</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>407.13</v>
+      </c>
+      <c r="E10" s="6">
+        <v>321.0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>672.4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>636.5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>624.7</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -750,18 +830,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>51.102</v>
+        <v>51.249</v>
       </c>
       <c r="C11" s="6">
-        <v>51.041</v>
+        <v>51.391</v>
       </c>
       <c r="D11" s="6">
-        <v>51.029</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>51.47</v>
+      </c>
+      <c r="E11" s="6">
+        <v>51.696</v>
+      </c>
+      <c r="F11" s="6">
+        <v>52.061</v>
+      </c>
+      <c r="G11" s="6">
+        <v>52.195</v>
+      </c>
+      <c r="H11" s="6">
+        <v>52.239</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -782,18 +870,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>1187.16</v>
+        <v>942.21</v>
       </c>
       <c r="C12" s="6">
-        <v>1052.36</v>
+        <v>1032.66</v>
       </c>
       <c r="D12" s="6">
-        <v>892.5</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>789.38</v>
+      </c>
+      <c r="E12" s="6">
+        <v>793.22</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1580.4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1334.75</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1135.62</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -814,18 +910,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>51.118</v>
+        <v>51.253</v>
       </c>
       <c r="C13" s="6">
-        <v>51.061</v>
+        <v>51.378</v>
       </c>
       <c r="D13" s="6">
-        <v>51.02</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>51.461</v>
+      </c>
+      <c r="E13" s="6">
+        <v>51.689</v>
+      </c>
+      <c r="F13" s="6">
+        <v>52.001</v>
+      </c>
+      <c r="G13" s="6">
+        <v>52.159</v>
+      </c>
+      <c r="H13" s="6">
+        <v>52.253</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -901,6 +1005,903 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
+        <f>workday("02/02/2022",0)</f>
+        <v>44594</v>
+      </c>
+      <c r="C1" s="2">
+        <f t="shared" ref="C1:T1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
+        <v>44595</v>
+      </c>
+      <c r="D1" s="2">
+        <f t="shared" si="1"/>
+        <v>44596</v>
+      </c>
+      <c r="E1" s="2">
+        <f t="shared" si="1"/>
+        <v>44599</v>
+      </c>
+      <c r="F1" s="2">
+        <f t="shared" si="1"/>
+        <v>44600</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" si="1"/>
+        <v>44601</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" si="1"/>
+        <v>44602</v>
+      </c>
+      <c r="I1" s="2">
+        <f t="shared" si="1"/>
+        <v>44603</v>
+      </c>
+      <c r="J1" s="2">
+        <f t="shared" si="1"/>
+        <v>44606</v>
+      </c>
+      <c r="K1" s="2">
+        <f t="shared" si="1"/>
+        <v>44607</v>
+      </c>
+      <c r="L1" s="2">
+        <f t="shared" si="1"/>
+        <v>44608</v>
+      </c>
+      <c r="M1" s="2">
+        <f t="shared" si="1"/>
+        <v>44609</v>
+      </c>
+      <c r="N1" s="2">
+        <f t="shared" si="1"/>
+        <v>44610</v>
+      </c>
+      <c r="O1" s="2">
+        <f t="shared" si="1"/>
+        <v>44613</v>
+      </c>
+      <c r="P1" s="2">
+        <f t="shared" si="1"/>
+        <v>44614</v>
+      </c>
+      <c r="Q1" s="2">
+        <f t="shared" si="1"/>
+        <v>44615</v>
+      </c>
+      <c r="R1" s="2">
+        <f t="shared" si="1"/>
+        <v>44616</v>
+      </c>
+      <c r="S1" s="2">
+        <f t="shared" si="1"/>
+        <v>44617</v>
+      </c>
+      <c r="T1" s="2">
+        <f t="shared" si="1"/>
+        <v>44620</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.3752662037037037</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.3765162037037037</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.3771412037037037</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3755671296296296</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.3752662037037037</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.37525462962962963</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.37864583333333335</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.37519675925925927</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.37613425925925925</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.3784490740740741</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.3771759259259259</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.37649305555555557</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.3801157407407407</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.3755324074074074</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.37561342592592595</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.37528935185185186</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.37547453703703704</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0.37754629629629627</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>51.05</v>
+      </c>
+      <c r="C3" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>51.25</v>
+      </c>
+      <c r="F3" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>51.43</v>
+      </c>
+      <c r="H3" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>51.36</v>
+      </c>
+      <c r="J3" s="6">
+        <v>51.38</v>
+      </c>
+      <c r="K3" s="6">
+        <v>51.36</v>
+      </c>
+      <c r="L3" s="6">
+        <v>51.319</v>
+      </c>
+      <c r="M3" s="7">
+        <v>51.27</v>
+      </c>
+      <c r="N3" s="6">
+        <v>51.34</v>
+      </c>
+      <c r="O3" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="P3" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>51.35</v>
+      </c>
+      <c r="R3" s="6">
+        <v>51.18</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6">
+        <v>51.39</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>51.18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>51.14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>51.38</v>
+      </c>
+      <c r="F4" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>51.445</v>
+      </c>
+      <c r="H4" s="6">
+        <v>51.32</v>
+      </c>
+      <c r="I4" s="6">
+        <v>51.37</v>
+      </c>
+      <c r="J4" s="6">
+        <v>51.405</v>
+      </c>
+      <c r="K4" s="6">
+        <v>51.42</v>
+      </c>
+      <c r="L4" s="6">
+        <v>51.34</v>
+      </c>
+      <c r="M4" s="7">
+        <v>51.36</v>
+      </c>
+      <c r="N4" s="6">
+        <v>51.36</v>
+      </c>
+      <c r="O4" s="6">
+        <v>51.42</v>
+      </c>
+      <c r="P4" s="6">
+        <v>51.48</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>51.365</v>
+      </c>
+      <c r="R4" s="6">
+        <v>51.44</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6">
+        <v>51.42</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>50.99</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50.92</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50.95</v>
+      </c>
+      <c r="E5" s="6">
+        <v>51.22</v>
+      </c>
+      <c r="F5" s="6">
+        <v>51.38</v>
+      </c>
+      <c r="G5" s="6">
+        <v>51.32</v>
+      </c>
+      <c r="H5" s="6">
+        <v>51.21</v>
+      </c>
+      <c r="I5" s="6">
+        <v>51.29</v>
+      </c>
+      <c r="J5" s="6">
+        <v>51.32</v>
+      </c>
+      <c r="K5" s="6">
+        <v>51.33</v>
+      </c>
+      <c r="L5" s="6">
+        <v>51.27</v>
+      </c>
+      <c r="M5" s="7">
+        <v>51.235</v>
+      </c>
+      <c r="N5" s="6">
+        <v>51.28</v>
+      </c>
+      <c r="O5" s="6">
+        <v>51.36</v>
+      </c>
+      <c r="P5" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>51.1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>51.17</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6">
+        <v>51.265</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>51.045</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51.05</v>
+      </c>
+      <c r="D6" s="6">
+        <v>51.14</v>
+      </c>
+      <c r="E6" s="6">
+        <v>51.37</v>
+      </c>
+      <c r="F6" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>51.34</v>
+      </c>
+      <c r="H6" s="6">
+        <v>51.235</v>
+      </c>
+      <c r="I6" s="6">
+        <v>51.34</v>
+      </c>
+      <c r="J6" s="6">
+        <v>51.37</v>
+      </c>
+      <c r="K6" s="6">
+        <v>51.382</v>
+      </c>
+      <c r="L6" s="6">
+        <v>51.285</v>
+      </c>
+      <c r="M6" s="7">
+        <v>51.33</v>
+      </c>
+      <c r="N6" s="6">
+        <v>51.35</v>
+      </c>
+      <c r="O6" s="6">
+        <v>51.38</v>
+      </c>
+      <c r="P6" s="6">
+        <v>51.45</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>51.1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>51.34</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6">
+        <v>51.27</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>51.118</v>
+      </c>
+      <c r="C7" s="6">
+        <v>51.061</v>
+      </c>
+      <c r="D7" s="6">
+        <v>51.02</v>
+      </c>
+      <c r="E7" s="6">
+        <v>51.282</v>
+      </c>
+      <c r="F7" s="6">
+        <v>51.417</v>
+      </c>
+      <c r="G7" s="6">
+        <v>51.386</v>
+      </c>
+      <c r="H7" s="6">
+        <v>51.279</v>
+      </c>
+      <c r="I7" s="6">
+        <v>51.329</v>
+      </c>
+      <c r="J7" s="6">
+        <v>51.386</v>
+      </c>
+      <c r="K7" s="6">
+        <v>51.371</v>
+      </c>
+      <c r="L7" s="6">
+        <v>51.304</v>
+      </c>
+      <c r="M7" s="7">
+        <v>51.267</v>
+      </c>
+      <c r="N7" s="6">
+        <v>51.315</v>
+      </c>
+      <c r="O7" s="6">
+        <v>51.393</v>
+      </c>
+      <c r="P7" s="6">
+        <v>51.445</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>51.338</v>
+      </c>
+      <c r="R7" s="6">
+        <v>51.237</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
+        <v>51.399</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>660.86</v>
+      </c>
+      <c r="C8" s="6">
+        <v>495.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>449.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>487.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>592.0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>452.0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>497.0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>329.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>291.28</v>
+      </c>
+      <c r="L8" s="6">
+        <v>352.0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>385.3</v>
+      </c>
+      <c r="N8" s="6">
+        <v>263.2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>368.0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>390.5</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>404.8</v>
+      </c>
+      <c r="R8" s="6">
+        <v>539.2</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
+        <v>467.0</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>51.082</v>
+      </c>
+      <c r="C9" s="6">
+        <v>51.023</v>
+      </c>
+      <c r="D9" s="6">
+        <v>51.038</v>
+      </c>
+      <c r="E9" s="6">
+        <v>51.305</v>
+      </c>
+      <c r="F9" s="6">
+        <v>51.453</v>
+      </c>
+      <c r="G9" s="6">
+        <v>51.363</v>
+      </c>
+      <c r="H9" s="6">
+        <v>51.255</v>
+      </c>
+      <c r="I9" s="6">
+        <v>51.329</v>
+      </c>
+      <c r="J9" s="6">
+        <v>51.362</v>
+      </c>
+      <c r="K9" s="6">
+        <v>51.368</v>
+      </c>
+      <c r="L9" s="6">
+        <v>51.284</v>
+      </c>
+      <c r="M9" s="7">
+        <v>51.306</v>
+      </c>
+      <c r="N9" s="6">
+        <v>51.314</v>
+      </c>
+      <c r="O9" s="6">
+        <v>51.393</v>
+      </c>
+      <c r="P9" s="6">
+        <v>51.445</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>51.22</v>
+      </c>
+      <c r="R9" s="6">
+        <v>51.339</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
+        <v>51.364</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>526.3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>557.36</v>
+      </c>
+      <c r="D10" s="6">
+        <v>443.5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>459.3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>518.1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>400.1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>485.4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>416.88</v>
+      </c>
+      <c r="J10" s="6">
+        <v>297.5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>269.0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>244.1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>439.1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>283.0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>345.5</v>
+      </c>
+      <c r="P10" s="6">
+        <v>391.9</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>529.4</v>
+      </c>
+      <c r="R10" s="6">
+        <v>620.9</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
+        <v>313.5</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>51.102</v>
+      </c>
+      <c r="C11" s="6">
+        <v>51.041</v>
+      </c>
+      <c r="D11" s="6">
+        <v>51.029</v>
+      </c>
+      <c r="E11" s="6">
+        <v>51.293</v>
+      </c>
+      <c r="F11" s="6">
+        <v>51.436</v>
+      </c>
+      <c r="G11" s="6">
+        <v>51.377</v>
+      </c>
+      <c r="H11" s="6">
+        <v>51.267</v>
+      </c>
+      <c r="I11" s="6">
+        <v>51.329</v>
+      </c>
+      <c r="J11" s="6">
+        <v>51.375</v>
+      </c>
+      <c r="K11" s="6">
+        <v>51.37</v>
+      </c>
+      <c r="L11" s="6">
+        <v>51.296</v>
+      </c>
+      <c r="M11" s="7">
+        <v>51.288</v>
+      </c>
+      <c r="N11" s="6">
+        <v>51.314</v>
+      </c>
+      <c r="O11" s="6">
+        <v>51.393</v>
+      </c>
+      <c r="P11" s="6">
+        <v>51.445</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>51.271</v>
+      </c>
+      <c r="R11" s="6">
+        <v>51.291</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6">
+        <v>51.385</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1187.16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1052.36</v>
+      </c>
+      <c r="D12" s="6">
+        <v>892.5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>959.3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1005.1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>992.1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>937.4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>913.88</v>
+      </c>
+      <c r="J12" s="6">
+        <v>627.0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>560.28</v>
+      </c>
+      <c r="L12" s="6">
+        <v>596.1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>824.4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>546.2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>713.5</v>
+      </c>
+      <c r="P12" s="6">
+        <v>782.4</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>934.2</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1160.1</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6">
+        <v>780.5</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>51.118</v>
+      </c>
+      <c r="C13" s="6">
+        <v>51.061</v>
+      </c>
+      <c r="D13" s="6">
+        <v>51.02</v>
+      </c>
+      <c r="E13" s="6">
+        <v>51.282</v>
+      </c>
+      <c r="F13" s="6">
+        <v>51.417</v>
+      </c>
+      <c r="G13" s="6">
+        <v>51.386</v>
+      </c>
+      <c r="H13" s="6">
+        <v>51.279</v>
+      </c>
+      <c r="I13" s="6">
+        <v>51.329</v>
+      </c>
+      <c r="J13" s="6">
+        <v>51.386</v>
+      </c>
+      <c r="K13" s="6">
+        <v>51.371</v>
+      </c>
+      <c r="L13" s="6">
+        <v>51.304</v>
+      </c>
+      <c r="M13" s="6">
+        <v>51.267</v>
+      </c>
+      <c r="N13" s="6">
+        <v>51.315</v>
+      </c>
+      <c r="O13" s="6">
+        <v>51.393</v>
+      </c>
+      <c r="P13" s="6">
+        <v>51.445</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>51.338</v>
+      </c>
+      <c r="R13" s="6">
+        <v>51.237</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6">
+        <v>51.399</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V2:V13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
         <f>workday("01/03/2022",0)</f>
         <v>44564</v>
       </c>

--- a/raw_data/2022 BAP FX Summary.xlsx
+++ b/raw_data/2022 BAP FX Summary.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="APRIL" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="MARCH" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="FEBRUARY" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="JANUARY" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="JUNE" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="MAY" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="APRIL" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="MARCH" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="FEBRUARY" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="JANUARY" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,15 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
   <si>
     <t>TIME</t>
-  </si>
-  <si>
-    <t>MAUNDY THURSDAY</t>
-  </si>
-  <si>
-    <t>GOOD FRIDAY</t>
   </si>
   <si>
     <t>OPEN</t>
@@ -58,6 +54,18 @@
     <t>FX SETTLEMENT RATE</t>
   </si>
   <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Election Day</t>
+  </si>
+  <si>
+    <t>MAUNDY THURSDAY</t>
+  </si>
+  <si>
+    <t>GOOD FRIDAY</t>
+  </si>
+  <si>
     <t>HOLIDAY</t>
   </si>
 </sst>
@@ -67,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -95,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +114,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -121,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -140,7 +154,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -149,25 +163,34 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -202,6 +225,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -420,90 +451,93 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <f>workday("04/01/2022",0)</f>
-        <v>44652</v>
+        <f>workday("06/01/2022",0)</f>
+        <v>44713</v>
       </c>
       <c r="C1" s="2">
-        <f t="shared" ref="C1:V1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
-        <v>44655</v>
+        <f t="shared" ref="C1:W1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
+        <v>44714</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="1"/>
-        <v>44656</v>
+        <v>44715</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="1"/>
-        <v>44657</v>
+        <v>44718</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="1"/>
-        <v>44658</v>
+        <v>44719</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="1"/>
-        <v>44659</v>
+        <v>44720</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="1"/>
-        <v>44662</v>
+        <v>44721</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="1"/>
-        <v>44663</v>
+        <v>44722</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="1"/>
-        <v>44664</v>
+        <v>44725</v>
       </c>
       <c r="K1" s="3">
         <f t="shared" si="1"/>
-        <v>44665</v>
+        <v>44726</v>
       </c>
       <c r="L1" s="3">
         <f t="shared" si="1"/>
-        <v>44666</v>
+        <v>44727</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" si="1"/>
-        <v>44669</v>
+        <v>44728</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="1"/>
-        <v>44670</v>
+        <v>44729</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="1"/>
-        <v>44671</v>
+        <v>44732</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="1"/>
-        <v>44672</v>
+        <v>44733</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="1"/>
-        <v>44673</v>
+        <v>44734</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="1"/>
-        <v>44676</v>
+        <v>44735</v>
       </c>
       <c r="S1" s="2">
         <f t="shared" si="1"/>
-        <v>44677</v>
+        <v>44736</v>
       </c>
       <c r="T1" s="2">
         <f t="shared" si="1"/>
-        <v>44678</v>
+        <v>44739</v>
       </c>
       <c r="U1" s="2">
         <f t="shared" si="1"/>
-        <v>44679</v>
+        <v>44740</v>
       </c>
       <c r="V1" s="2">
         <f t="shared" si="1"/>
-        <v>44680</v>
-      </c>
-      <c r="W1" s="2"/>
+        <v>44741</v>
+      </c>
+      <c r="W1" s="2">
+        <f t="shared" si="1"/>
+        <v>44742</v>
+      </c>
       <c r="X1" s="2"/>
     </row>
     <row r="2">
@@ -511,56 +545,48 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>0.37539351851851854</v>
+        <v>0.3780324074074074</v>
       </c>
       <c r="C2" s="5">
-        <v>0.37636574074074075</v>
+        <v>0.37886574074074075</v>
       </c>
       <c r="D2" s="5">
+        <v>0.3754282407407407</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.3793402777777778</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.3757523148148148</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.37515046296296295</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.3753356481481481</v>
-      </c>
       <c r="G2" s="5">
+        <v>0.37559027777777776</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.3754513888888889</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.3754398148148148</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.3750925925925926</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.37971064814814814</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.3753472222222222</v>
+      </c>
+      <c r="M2" s="5">
         <v>0.3752662037037037</v>
       </c>
-      <c r="H2" s="5">
-        <v>0.37539351851851854</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.3752083333333333</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.3753472222222222</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0.37515046296296295</v>
-      </c>
       <c r="N2" s="5">
-        <v>0.3754513888888889</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0.3753125</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.3752314814814815</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0.37528935185185186</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0.37827546296296294</v>
-      </c>
+        <v>0.37903935185185184</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -570,55 +596,50 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>51.79</v>
+        <v>52.43</v>
       </c>
       <c r="C3" s="8">
-        <v>51.6</v>
+        <v>52.47</v>
       </c>
       <c r="D3" s="8">
-        <v>51.32</v>
+        <v>52.82</v>
       </c>
       <c r="E3" s="8">
-        <v>51.25</v>
+        <v>52.92</v>
       </c>
       <c r="F3" s="8">
-        <v>51.37</v>
+        <v>52.9</v>
       </c>
       <c r="G3" s="8">
-        <v>51.45</v>
+        <v>52.9</v>
       </c>
       <c r="H3" s="8">
-        <v>51.7</v>
+        <v>52.95</v>
       </c>
       <c r="I3" s="8">
-        <v>52.15</v>
+        <v>52.97</v>
       </c>
       <c r="J3" s="8">
-        <v>52.1</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9">
-        <v>52.15</v>
+        <v>53.1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>53.28</v>
+      </c>
+      <c r="L3" s="9">
+        <v>53.3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>53.3</v>
       </c>
       <c r="N3" s="8">
-        <v>52.35</v>
-      </c>
-      <c r="O3" s="8">
-        <v>52.44</v>
-      </c>
-      <c r="P3" s="8">
-        <v>52.4</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>52.44</v>
-      </c>
-      <c r="R3" s="8">
-        <v>52.38</v>
-      </c>
+        <v>53.47</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -628,171 +649,156 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>51.81</v>
+        <v>52.49</v>
       </c>
       <c r="C4" s="8">
-        <v>51.6</v>
+        <v>52.8</v>
       </c>
       <c r="D4" s="8">
-        <v>51.355</v>
+        <v>52.92</v>
       </c>
       <c r="E4" s="8">
-        <v>51.445</v>
+        <v>52.97</v>
       </c>
       <c r="F4" s="8">
-        <v>51.43</v>
+        <v>52.975</v>
       </c>
       <c r="G4" s="8">
-        <v>51.62</v>
+        <v>52.935</v>
       </c>
       <c r="H4" s="8">
-        <v>52.08</v>
+        <v>52.97</v>
       </c>
       <c r="I4" s="8">
-        <v>52.29</v>
+        <v>53.0</v>
       </c>
       <c r="J4" s="8">
-        <v>52.1</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="9">
-        <v>52.29</v>
+        <v>53.3</v>
+      </c>
+      <c r="K4" s="9">
+        <v>53.4</v>
+      </c>
+      <c r="L4" s="9">
+        <v>53.47</v>
+      </c>
+      <c r="M4" s="10">
+        <v>53.495</v>
       </c>
       <c r="N4" s="8">
-        <v>52.48</v>
-      </c>
-      <c r="O4" s="8">
-        <v>52.49</v>
-      </c>
-      <c r="P4" s="8">
-        <v>52.45</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>52.45</v>
-      </c>
-      <c r="R4" s="8">
-        <v>52.48</v>
-      </c>
+        <v>53.76</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="11"/>
+      <c r="V4" s="12"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>51.55</v>
+        <v>52.42</v>
       </c>
       <c r="C5" s="8">
-        <v>51.31</v>
+        <v>52.455</v>
       </c>
       <c r="D5" s="8">
-        <v>51.14</v>
+        <v>52.7</v>
       </c>
       <c r="E5" s="8">
-        <v>51.25</v>
+        <v>52.84</v>
       </c>
       <c r="F5" s="8">
-        <v>51.33</v>
+        <v>52.87</v>
       </c>
       <c r="G5" s="8">
-        <v>51.45</v>
+        <v>52.85</v>
       </c>
       <c r="H5" s="8">
-        <v>51.69</v>
+        <v>52.9</v>
       </c>
       <c r="I5" s="8">
-        <v>52.06</v>
+        <v>52.925</v>
       </c>
       <c r="J5" s="8">
-        <v>51.88</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9">
-        <v>52.15</v>
+        <v>53.1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>53.13</v>
+      </c>
+      <c r="L5" s="9">
+        <v>53.3</v>
+      </c>
+      <c r="M5" s="10">
+        <v>53.29</v>
       </c>
       <c r="N5" s="8">
-        <v>52.31</v>
-      </c>
-      <c r="O5" s="8">
-        <v>52.42</v>
-      </c>
-      <c r="P5" s="8">
-        <v>52.35</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>52.215</v>
-      </c>
-      <c r="R5" s="8">
-        <v>52.38</v>
-      </c>
+        <v>53.43</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="11"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>51.67</v>
+        <v>52.48</v>
       </c>
       <c r="C6" s="8">
-        <v>51.38</v>
+        <v>52.8</v>
       </c>
       <c r="D6" s="8">
-        <v>51.19</v>
+        <v>52.86</v>
       </c>
       <c r="E6" s="8">
-        <v>51.43</v>
+        <v>52.86</v>
       </c>
       <c r="F6" s="8">
-        <v>51.42</v>
+        <v>52.95</v>
       </c>
       <c r="G6" s="8">
-        <v>51.59</v>
+        <v>52.915</v>
       </c>
       <c r="H6" s="8">
-        <v>52.05</v>
+        <v>52.95</v>
       </c>
       <c r="I6" s="8">
-        <v>52.1</v>
+        <v>53.0</v>
       </c>
       <c r="J6" s="8">
-        <v>52.03</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9">
-        <v>52.27</v>
+        <v>53.3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>53.25</v>
+      </c>
+      <c r="L6" s="9">
+        <v>53.435</v>
+      </c>
+      <c r="M6" s="10">
+        <v>53.47</v>
       </c>
       <c r="N6" s="8">
-        <v>52.46</v>
-      </c>
-      <c r="O6" s="8">
-        <v>52.49</v>
-      </c>
-      <c r="P6" s="8">
-        <v>52.365</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>52.315</v>
-      </c>
-      <c r="R6" s="8">
-        <v>52.41</v>
-      </c>
+        <v>53.75</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -802,55 +808,50 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>51.68</v>
+        <v>52.456</v>
       </c>
       <c r="C7" s="8">
-        <v>51.519</v>
+        <v>52.493</v>
       </c>
       <c r="D7" s="8">
-        <v>51.306</v>
+        <v>52.854</v>
       </c>
       <c r="E7" s="8">
-        <v>51.381</v>
+        <v>52.934</v>
       </c>
       <c r="F7" s="8">
-        <v>51.39</v>
+        <v>52.913</v>
       </c>
       <c r="G7" s="8">
-        <v>51.514</v>
+        <v>52.896</v>
       </c>
       <c r="H7" s="8">
-        <v>51.867</v>
+        <v>52.956</v>
       </c>
       <c r="I7" s="8">
-        <v>52.211</v>
+        <v>52.943</v>
       </c>
       <c r="J7" s="8">
-        <v>51.962</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="9">
-        <v>52.22</v>
+        <v>53.234</v>
+      </c>
+      <c r="K7" s="9">
+        <v>53.304</v>
+      </c>
+      <c r="L7" s="9">
+        <v>53.361</v>
+      </c>
+      <c r="M7" s="10">
+        <v>53.337</v>
       </c>
       <c r="N7" s="8">
-        <v>52.358</v>
-      </c>
-      <c r="O7" s="8">
-        <v>52.452</v>
-      </c>
-      <c r="P7" s="8">
-        <v>52.398</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>52.392</v>
-      </c>
-      <c r="R7" s="8">
-        <v>52.408</v>
-      </c>
+        <v>53.455</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -860,345 +861,315 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>737.15</v>
+        <v>374.7</v>
       </c>
       <c r="C8" s="8">
-        <v>451.8</v>
+        <v>490.0</v>
       </c>
       <c r="D8" s="8">
-        <v>693.6</v>
+        <v>547.8</v>
       </c>
       <c r="E8" s="8">
-        <v>783.2</v>
+        <v>611.0</v>
       </c>
       <c r="F8" s="8">
-        <v>419.0</v>
+        <v>438.17</v>
       </c>
       <c r="G8" s="8">
-        <v>617.0</v>
+        <v>370.2</v>
       </c>
       <c r="H8" s="8">
-        <v>1072.4</v>
+        <v>283.5</v>
       </c>
       <c r="I8" s="8">
-        <v>733.0</v>
+        <v>414.5</v>
       </c>
       <c r="J8" s="8">
-        <v>462.5</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="9">
-        <v>602.24</v>
+        <v>372.5</v>
+      </c>
+      <c r="K8" s="9">
+        <v>735.7</v>
+      </c>
+      <c r="L8" s="9">
+        <v>640.15</v>
+      </c>
+      <c r="M8" s="10">
+        <v>598.5</v>
       </c>
       <c r="N8" s="8">
-        <v>542.86</v>
-      </c>
-      <c r="O8" s="8">
-        <v>516.7</v>
-      </c>
-      <c r="P8" s="8">
-        <v>593.6</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>500.3</v>
-      </c>
-      <c r="R8" s="8">
-        <v>302.0</v>
-      </c>
+        <v>297.5</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>51.645</v>
+        <v>52.466</v>
       </c>
       <c r="C9" s="8">
-        <v>51.41</v>
+        <v>52.649</v>
       </c>
       <c r="D9" s="8">
-        <v>51.213</v>
+        <v>52.79</v>
       </c>
       <c r="E9" s="8">
-        <v>51.395</v>
+        <v>52.892</v>
       </c>
       <c r="F9" s="8">
-        <v>51.381</v>
+        <v>52.936</v>
       </c>
       <c r="G9" s="8">
-        <v>51.547</v>
+        <v>52.902</v>
       </c>
       <c r="H9" s="8">
-        <v>52.004</v>
+        <v>52.938</v>
       </c>
       <c r="I9" s="8">
-        <v>52.137</v>
+        <v>52.957</v>
       </c>
       <c r="J9" s="8">
-        <v>51.984</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="9">
-        <v>52.242</v>
+        <v>53.267</v>
+      </c>
+      <c r="K9" s="9">
+        <v>53.22</v>
+      </c>
+      <c r="L9" s="9">
+        <v>53.382</v>
+      </c>
+      <c r="M9" s="10">
+        <v>53.411</v>
       </c>
       <c r="N9" s="8">
-        <v>52.405</v>
-      </c>
-      <c r="O9" s="8">
-        <v>52.455</v>
-      </c>
-      <c r="P9" s="8">
-        <v>52.392</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>52.302</v>
-      </c>
-      <c r="R9" s="8">
-        <v>52.442</v>
-      </c>
+        <v>53.594</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="12"/>
+      <c r="V9" s="14"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>593.1</v>
+        <v>349.52</v>
       </c>
       <c r="C10" s="8">
-        <v>756.3</v>
+        <v>609.5</v>
       </c>
       <c r="D10" s="8">
-        <v>609.95</v>
+        <v>580.5</v>
       </c>
       <c r="E10" s="8">
-        <v>480.1</v>
+        <v>468.5</v>
       </c>
       <c r="F10" s="8">
-        <v>466.5</v>
+        <v>307.0</v>
       </c>
       <c r="G10" s="8">
-        <v>439.14</v>
+        <v>265.36</v>
       </c>
       <c r="H10" s="8">
-        <v>562.7</v>
+        <v>449.12</v>
       </c>
       <c r="I10" s="8">
-        <v>683.8</v>
+        <v>534.8</v>
       </c>
       <c r="J10" s="8">
-        <v>732.75</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="9">
-        <v>540.08</v>
+        <v>312.7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>431.9</v>
+      </c>
+      <c r="L10" s="9">
+        <v>524.6</v>
+      </c>
+      <c r="M10" s="10">
+        <v>542.76</v>
       </c>
       <c r="N10" s="8">
-        <v>544.5</v>
-      </c>
-      <c r="O10" s="8">
-        <v>379.1</v>
-      </c>
-      <c r="P10" s="8">
-        <v>751.0</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>782.7</v>
-      </c>
-      <c r="R10" s="8">
-        <v>424.0</v>
-      </c>
+        <v>665.0</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="15"/>
+      <c r="V10" s="11"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>51.664</v>
+        <v>52.461</v>
       </c>
       <c r="C11" s="8">
-        <v>51.45</v>
+        <v>52.58</v>
       </c>
       <c r="D11" s="8">
-        <v>51.262</v>
+        <v>52.821</v>
       </c>
       <c r="E11" s="8">
-        <v>51.386</v>
+        <v>52.916</v>
       </c>
       <c r="F11" s="8">
-        <v>51.385</v>
+        <v>52.922</v>
       </c>
       <c r="G11" s="8">
-        <v>51.528</v>
+        <v>52.899</v>
       </c>
       <c r="H11" s="8">
-        <v>51.914</v>
+        <v>52.945</v>
       </c>
       <c r="I11" s="8">
-        <v>52.175</v>
+        <v>52.951</v>
       </c>
       <c r="J11" s="8">
-        <v>51.975</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="9">
-        <v>52.231</v>
+        <v>53.249</v>
+      </c>
+      <c r="K11" s="9">
+        <v>53.273</v>
+      </c>
+      <c r="L11" s="9">
+        <v>53.37</v>
+      </c>
+      <c r="M11" s="10">
+        <v>53.372</v>
       </c>
       <c r="N11" s="8">
-        <v>52.381</v>
-      </c>
-      <c r="O11" s="8">
-        <v>52.453</v>
-      </c>
-      <c r="P11" s="8">
-        <v>52.395</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>52.337</v>
-      </c>
-      <c r="R11" s="8">
-        <v>52.428</v>
-      </c>
+        <v>53.551</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="12"/>
+      <c r="V11" s="14"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>1330.25</v>
+        <v>724.22</v>
       </c>
       <c r="C12" s="8">
-        <v>1208.1</v>
+        <v>1099.5</v>
       </c>
       <c r="D12" s="8">
-        <v>1303.55</v>
+        <v>1128.3</v>
       </c>
       <c r="E12" s="8">
-        <v>1263.3</v>
+        <v>1079.5</v>
       </c>
       <c r="F12" s="8">
-        <v>885.5</v>
+        <v>745.17</v>
       </c>
       <c r="G12" s="8">
-        <v>1056.14</v>
+        <v>635.56</v>
       </c>
       <c r="H12" s="8">
-        <v>1635.1</v>
+        <v>732.62</v>
       </c>
       <c r="I12" s="8">
-        <v>1416.8</v>
+        <v>949.3</v>
       </c>
       <c r="J12" s="8">
-        <v>1195.25</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="9">
-        <v>1142.32</v>
+        <v>685.2</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1167.6</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1164.75</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1141.26</v>
       </c>
       <c r="N12" s="8">
-        <v>1087.36</v>
-      </c>
-      <c r="O12" s="8">
-        <v>895.8</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1344.6</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>1283.0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>726.0</v>
-      </c>
+        <v>962.5</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="15"/>
+      <c r="V12" s="11"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>51.68</v>
+        <v>52.456</v>
       </c>
       <c r="C13" s="8">
-        <v>51.519</v>
+        <v>52.493</v>
       </c>
       <c r="D13" s="8">
-        <v>51.306</v>
+        <v>52.854</v>
       </c>
       <c r="E13" s="8">
-        <v>51.381</v>
+        <v>52.934</v>
       </c>
       <c r="F13" s="8">
-        <v>51.39</v>
+        <v>52.913</v>
       </c>
       <c r="G13" s="8">
-        <v>51.514</v>
+        <v>52.896</v>
       </c>
       <c r="H13" s="8">
-        <v>51.867</v>
+        <v>52.956</v>
       </c>
       <c r="I13" s="8">
-        <v>52.211</v>
+        <v>52.943</v>
       </c>
       <c r="J13" s="8">
-        <v>51.962</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+        <v>53.234</v>
+      </c>
+      <c r="K13" s="9">
+        <v>53.304</v>
+      </c>
+      <c r="L13" s="9">
+        <v>53.361</v>
+      </c>
       <c r="M13" s="8">
-        <v>52.22</v>
+        <v>53.337</v>
       </c>
       <c r="N13" s="8">
-        <v>52.358</v>
-      </c>
-      <c r="O13" s="8">
-        <v>52.452</v>
-      </c>
-      <c r="P13" s="8">
-        <v>52.398</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>52.392</v>
-      </c>
-      <c r="R13" s="8">
-        <v>52.408</v>
-      </c>
+        <v>53.455</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
@@ -1262,989 +1233,921 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="15.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <f>workday("03/01/2022",0)</f>
-        <v>44621</v>
+        <f>workday("05/02/2022",0)</f>
+        <v>44683</v>
       </c>
       <c r="C1" s="2">
-        <f t="shared" ref="C1:X1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
-        <v>44622</v>
+        <f t="shared" ref="C1:W1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
+        <v>44684</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="1"/>
-        <v>44623</v>
+        <v>44685</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="1"/>
-        <v>44624</v>
+        <v>44686</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="1"/>
-        <v>44627</v>
+        <v>44687</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="1"/>
-        <v>44628</v>
+        <v>44690</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="1"/>
-        <v>44629</v>
+        <v>44691</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="1"/>
-        <v>44630</v>
+        <v>44692</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="1"/>
-        <v>44631</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
-        <v>44634</v>
-      </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
-        <v>44635</v>
+        <v>44693</v>
+      </c>
+      <c r="K1" s="3">
+        <f t="shared" si="1"/>
+        <v>44694</v>
+      </c>
+      <c r="L1" s="3">
+        <f t="shared" si="1"/>
+        <v>44697</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" si="1"/>
-        <v>44636</v>
+        <v>44698</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="1"/>
-        <v>44637</v>
+        <v>44699</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="1"/>
-        <v>44638</v>
+        <v>44700</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="1"/>
-        <v>44641</v>
+        <v>44701</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="1"/>
-        <v>44642</v>
+        <v>44704</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="1"/>
-        <v>44643</v>
+        <v>44705</v>
       </c>
       <c r="S1" s="2">
         <f t="shared" si="1"/>
-        <v>44644</v>
+        <v>44706</v>
       </c>
       <c r="T1" s="2">
         <f t="shared" si="1"/>
-        <v>44645</v>
+        <v>44707</v>
       </c>
       <c r="U1" s="2">
         <f t="shared" si="1"/>
-        <v>44648</v>
+        <v>44708</v>
       </c>
       <c r="V1" s="2">
         <f t="shared" si="1"/>
-        <v>44649</v>
+        <v>44711</v>
       </c>
       <c r="W1" s="2">
         <f t="shared" si="1"/>
-        <v>44650</v>
-      </c>
-      <c r="X1" s="2">
-        <f t="shared" si="1"/>
-        <v>44651</v>
-      </c>
+        <v>44712</v>
+      </c>
+      <c r="X1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>0.3759953703703704</v>
-      </c>
-      <c r="C2" s="5">
+        <v>0.37776620370370373</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
         <v>0.3753240740740741</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.37971064814814814</v>
-      </c>
       <c r="E2" s="5">
-        <v>0.3754166666666667</v>
+        <v>0.3752083333333333</v>
       </c>
       <c r="F2" s="5">
-        <v>0.3753587962962963</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.3751851851851852</v>
+        <v>0.3761805555555556</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="5">
-        <v>0.37528935185185186</v>
+        <v>0.3753472222222222</v>
       </c>
       <c r="I2" s="5">
+        <v>0.37524305555555554</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.3752199074074074</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.3752199074074074</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.3752083333333333</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.37809027777777776</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.3751273148148148</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.37819444444444444</v>
+      </c>
+      <c r="P2" s="5">
         <v>0.37525462962962963</v>
       </c>
-      <c r="J2" s="5">
-        <v>0.37519675925925927</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.3751273148148148</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="Q2" s="7">
+        <v>0.37810185185185186</v>
+      </c>
+      <c r="R2" s="5">
         <v>0.37527777777777777</v>
       </c>
-      <c r="M2" s="5">
-        <v>0.3758564814814815</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.3754050925925926</v>
-      </c>
-      <c r="O2" s="5">
+      <c r="S2" s="5">
+        <v>0.3770833333333333</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.37515046296296295</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.3756712962962963</v>
+      </c>
+      <c r="V2" s="5">
         <v>0.37527777777777777</v>
       </c>
-      <c r="P2" s="5">
-        <v>0.3803009259259259</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0.3752314814814815</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0.37515046296296295</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0.37701388888888887</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0.375625</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0.3752314814814815</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0.37596064814814817</v>
-      </c>
       <c r="W2" s="5">
-        <v>0.37525462962962963</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0.3752199074074074</v>
-      </c>
+        <v>0.37555555555555553</v>
+      </c>
+      <c r="X2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>51.24</v>
-      </c>
-      <c r="C3" s="8">
-        <v>51.35</v>
-      </c>
+        <v>52.25</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8">
-        <v>51.43</v>
+        <v>52.43</v>
       </c>
       <c r="E3" s="8">
-        <v>51.65</v>
+        <v>52.38</v>
       </c>
       <c r="F3" s="8">
-        <v>51.9</v>
-      </c>
-      <c r="G3" s="8">
-        <v>52.25</v>
-      </c>
+        <v>52.48</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8">
+        <v>52.499</v>
+      </c>
+      <c r="I3" s="8">
+        <v>52.32</v>
+      </c>
+      <c r="J3" s="8">
         <v>52.28</v>
       </c>
-      <c r="I3" s="8">
-        <v>52.12</v>
-      </c>
-      <c r="J3" s="8">
-        <v>52.25</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
+        <v>52.43</v>
+      </c>
+      <c r="L3" s="9">
+        <v>52.4</v>
+      </c>
+      <c r="M3" s="10">
+        <v>52.45</v>
+      </c>
+      <c r="N3" s="8">
+        <v>52.35</v>
+      </c>
+      <c r="O3" s="8">
+        <v>52.41</v>
+      </c>
+      <c r="P3" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>52.22</v>
+      </c>
+      <c r="R3" s="8">
         <v>52.32</v>
       </c>
-      <c r="L3" s="8">
-        <v>52.495</v>
-      </c>
-      <c r="M3" s="9">
-        <v>52.375</v>
-      </c>
-      <c r="N3" s="8">
-        <v>52.18</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="S3" s="8">
+        <v>52.34</v>
+      </c>
+      <c r="T3" s="8">
+        <v>52.35</v>
+      </c>
+      <c r="U3" s="8">
+        <v>52.333</v>
+      </c>
+      <c r="V3" s="11">
         <v>52.2</v>
       </c>
-      <c r="P3" s="8">
-        <v>52.31</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>52.44</v>
-      </c>
-      <c r="R3" s="8">
-        <v>52.42</v>
-      </c>
-      <c r="S3" s="8">
-        <v>52.41</v>
-      </c>
-      <c r="T3" s="8">
-        <v>52.305</v>
-      </c>
-      <c r="U3" s="8">
-        <v>52.18</v>
-      </c>
-      <c r="V3" s="11">
-        <v>52.07</v>
-      </c>
       <c r="W3" s="8">
-        <v>52.02</v>
-      </c>
-      <c r="X3" s="8">
-        <v>51.98</v>
-      </c>
+        <v>52.4</v>
+      </c>
+      <c r="X3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>51.295</v>
-      </c>
-      <c r="C4" s="8">
-        <v>51.455</v>
-      </c>
+        <v>52.4</v>
+      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="8">
-        <v>51.5</v>
+        <v>52.505</v>
       </c>
       <c r="E4" s="8">
-        <v>51.75</v>
+        <v>52.425</v>
       </c>
       <c r="F4" s="8">
-        <v>52.19</v>
-      </c>
-      <c r="G4" s="8">
-        <v>52.34</v>
-      </c>
+        <v>52.5</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="8">
-        <v>52.31</v>
+        <v>52.499</v>
       </c>
       <c r="I4" s="8">
-        <v>52.24</v>
+        <v>52.35</v>
       </c>
       <c r="J4" s="8">
-        <v>52.34</v>
-      </c>
-      <c r="K4" s="8">
+        <v>52.495</v>
+      </c>
+      <c r="K4" s="9">
+        <v>52.48</v>
+      </c>
+      <c r="L4" s="9">
+        <v>52.499</v>
+      </c>
+      <c r="M4" s="10">
+        <v>52.48</v>
+      </c>
+      <c r="N4" s="8">
+        <v>52.465</v>
+      </c>
+      <c r="O4" s="8">
+        <v>52.47</v>
+      </c>
+      <c r="P4" s="8">
+        <v>52.37</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>52.37</v>
+      </c>
+      <c r="R4" s="8">
+        <v>52.39</v>
+      </c>
+      <c r="S4" s="8">
+        <v>52.38</v>
+      </c>
+      <c r="T4" s="8">
         <v>52.49</v>
       </c>
-      <c r="L4" s="8">
-        <v>52.495</v>
-      </c>
-      <c r="M4" s="9">
-        <v>52.375</v>
-      </c>
-      <c r="N4" s="8">
-        <v>52.22</v>
-      </c>
-      <c r="O4" s="8">
-        <v>52.43</v>
-      </c>
-      <c r="P4" s="8">
-        <v>52.4</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>52.47</v>
-      </c>
-      <c r="R4" s="8">
-        <v>52.42</v>
-      </c>
-      <c r="S4" s="8">
-        <v>52.43</v>
-      </c>
-      <c r="T4" s="8">
-        <v>52.305</v>
-      </c>
       <c r="U4" s="8">
-        <v>52.3</v>
-      </c>
-      <c r="V4" s="11">
-        <v>52.13</v>
+        <v>52.35</v>
+      </c>
+      <c r="V4" s="12">
+        <v>52.33</v>
       </c>
       <c r="W4" s="8">
-        <v>52.04</v>
-      </c>
-      <c r="X4" s="8">
-        <v>51.995</v>
-      </c>
+        <v>52.435</v>
+      </c>
+      <c r="X4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>51.21</v>
-      </c>
-      <c r="C5" s="8">
-        <v>51.32</v>
-      </c>
+        <v>52.22</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="8">
-        <v>51.42</v>
+        <v>52.39</v>
       </c>
       <c r="E5" s="8">
-        <v>51.6</v>
+        <v>52.23</v>
       </c>
       <c r="F5" s="8">
-        <v>51.85</v>
-      </c>
-      <c r="G5" s="8">
-        <v>52.01</v>
-      </c>
+        <v>52.44</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="8">
+        <v>52.34</v>
+      </c>
+      <c r="I5" s="8">
+        <v>52.222</v>
+      </c>
+      <c r="J5" s="8">
+        <v>52.28</v>
+      </c>
+      <c r="K5" s="9">
+        <v>52.39</v>
+      </c>
+      <c r="L5" s="9">
+        <v>52.38</v>
+      </c>
+      <c r="M5" s="10">
+        <v>52.41</v>
+      </c>
+      <c r="N5" s="8">
+        <v>52.35</v>
+      </c>
+      <c r="O5" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="P5" s="8">
+        <v>52.111</v>
+      </c>
+      <c r="Q5" s="15">
         <v>52.15</v>
       </c>
-      <c r="I5" s="8">
-        <v>52.05</v>
-      </c>
-      <c r="J5" s="8">
-        <v>52.21</v>
-      </c>
-      <c r="K5" s="8">
-        <v>52.32</v>
-      </c>
-      <c r="L5" s="8">
-        <v>52.33</v>
-      </c>
-      <c r="M5" s="9">
-        <v>52.2</v>
-      </c>
-      <c r="N5" s="8">
-        <v>52.1</v>
-      </c>
-      <c r="O5" s="8">
-        <v>52.2</v>
-      </c>
-      <c r="P5" s="8">
-        <v>52.31</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>52.385</v>
-      </c>
       <c r="R5" s="8">
-        <v>52.33</v>
+        <v>52.23</v>
       </c>
       <c r="S5" s="8">
-        <v>52.15</v>
+        <v>52.3</v>
       </c>
       <c r="T5" s="8">
-        <v>52.12</v>
+        <v>52.28</v>
       </c>
       <c r="U5" s="8">
-        <v>52.08</v>
-      </c>
-      <c r="V5" s="11">
-        <v>51.99</v>
+        <v>52.235</v>
+      </c>
+      <c r="V5" s="12">
+        <v>52.16</v>
       </c>
       <c r="W5" s="8">
-        <v>51.92</v>
-      </c>
-      <c r="X5" s="8">
-        <v>51.74</v>
-      </c>
+        <v>52.37</v>
+      </c>
+      <c r="X5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>51.23</v>
-      </c>
-      <c r="C6" s="8">
-        <v>51.42</v>
-      </c>
+        <v>52.365</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8">
-        <v>51.5</v>
+        <v>52.5</v>
       </c>
       <c r="E6" s="8">
-        <v>51.74</v>
+        <v>52.385</v>
       </c>
       <c r="F6" s="8">
-        <v>52.18</v>
-      </c>
-      <c r="G6" s="8">
+        <v>52.5</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>52.37</v>
+      </c>
+      <c r="I6" s="8">
+        <v>52.275</v>
+      </c>
+      <c r="J6" s="8">
+        <v>52.495</v>
+      </c>
+      <c r="K6" s="9">
+        <v>52.45</v>
+      </c>
+      <c r="L6" s="9">
+        <v>52.493</v>
+      </c>
+      <c r="M6" s="10">
+        <v>52.425</v>
+      </c>
+      <c r="N6" s="8">
+        <v>52.45</v>
+      </c>
+      <c r="O6" s="8">
+        <v>52.45</v>
+      </c>
+      <c r="P6" s="8">
+        <v>52.23</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>52.27</v>
+      </c>
+      <c r="R6" s="8">
         <v>52.32</v>
       </c>
-      <c r="H6" s="8">
-        <v>52.23</v>
-      </c>
-      <c r="I6" s="8">
-        <v>52.155</v>
-      </c>
-      <c r="J6" s="8">
-        <v>52.29</v>
-      </c>
-      <c r="K6" s="8">
-        <v>52.475</v>
-      </c>
-      <c r="L6" s="8">
-        <v>52.415</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="S6" s="8">
+        <v>52.355</v>
+      </c>
+      <c r="T6" s="8">
+        <v>52.4</v>
+      </c>
+      <c r="U6" s="8">
+        <v>52.32</v>
+      </c>
+      <c r="V6" s="12">
         <v>52.31</v>
       </c>
-      <c r="N6" s="8">
-        <v>52.14</v>
-      </c>
-      <c r="O6" s="8">
-        <v>52.335</v>
-      </c>
-      <c r="P6" s="8">
-        <v>52.35</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>52.44</v>
-      </c>
-      <c r="R6" s="8">
-        <v>52.39</v>
-      </c>
-      <c r="S6" s="8">
-        <v>52.33</v>
-      </c>
-      <c r="T6" s="8">
-        <v>52.15</v>
-      </c>
-      <c r="U6" s="8">
-        <v>52.13</v>
-      </c>
-      <c r="V6" s="12">
-        <v>52.075</v>
-      </c>
       <c r="W6" s="8">
-        <v>52.01</v>
-      </c>
-      <c r="X6" s="8">
-        <v>51.74</v>
-      </c>
+        <v>52.37</v>
+      </c>
+      <c r="X6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>51.253</v>
-      </c>
-      <c r="C7" s="8">
-        <v>51.378</v>
-      </c>
+        <v>52.272</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8">
-        <v>51.461</v>
+        <v>52.442</v>
       </c>
       <c r="E7" s="8">
-        <v>51.689</v>
+        <v>52.311</v>
       </c>
       <c r="F7" s="8">
-        <v>52.001</v>
-      </c>
-      <c r="G7" s="8">
-        <v>52.159</v>
-      </c>
+        <v>52.483</v>
+      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8">
-        <v>52.253</v>
+        <v>52.417</v>
       </c>
       <c r="I7" s="8">
-        <v>52.127</v>
+        <v>52.277</v>
       </c>
       <c r="J7" s="8">
+        <v>52.34</v>
+      </c>
+      <c r="K7" s="9">
+        <v>52.426</v>
+      </c>
+      <c r="L7" s="9">
+        <v>52.435</v>
+      </c>
+      <c r="M7" s="10">
+        <v>52.463</v>
+      </c>
+      <c r="N7" s="8">
+        <v>52.418</v>
+      </c>
+      <c r="O7" s="8">
+        <v>52.408</v>
+      </c>
+      <c r="P7" s="8">
+        <v>52.317</v>
+      </c>
+      <c r="Q7" s="15">
         <v>52.269</v>
       </c>
-      <c r="K7" s="8">
-        <v>52.402</v>
-      </c>
-      <c r="L7" s="8">
-        <v>52.416</v>
-      </c>
-      <c r="M7" s="9">
-        <v>52.321</v>
-      </c>
-      <c r="N7" s="8">
-        <v>52.156</v>
-      </c>
-      <c r="O7" s="8">
-        <v>52.335</v>
-      </c>
-      <c r="P7" s="8">
-        <v>52.366</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="8">
+        <v>52.348</v>
+      </c>
+      <c r="S7" s="8">
+        <v>52.35</v>
+      </c>
+      <c r="T7" s="8">
+        <v>52.358</v>
+      </c>
+      <c r="U7" s="8">
+        <v>52.324</v>
+      </c>
+      <c r="V7" s="12">
+        <v>52.23</v>
+      </c>
+      <c r="W7" s="8">
         <v>52.418</v>
       </c>
-      <c r="R7" s="8">
-        <v>52.368</v>
-      </c>
-      <c r="S7" s="8">
-        <v>52.415</v>
-      </c>
-      <c r="T7" s="8">
-        <v>52.232</v>
-      </c>
-      <c r="U7" s="8">
-        <v>52.231</v>
-      </c>
-      <c r="V7" s="12">
-        <v>52.087</v>
-      </c>
-      <c r="W7" s="8">
-        <v>51.949</v>
-      </c>
-      <c r="X7" s="8">
-        <v>51.969</v>
-      </c>
+      <c r="X7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>424.67</v>
-      </c>
-      <c r="C8" s="8">
-        <v>612.0</v>
-      </c>
+        <v>445.7</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8">
-        <v>382.25</v>
+        <v>725.5</v>
       </c>
       <c r="E8" s="8">
-        <v>472.22</v>
+        <v>562.5</v>
       </c>
       <c r="F8" s="8">
-        <v>908.0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>698.25</v>
-      </c>
+        <v>441.5</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="8">
-        <v>510.92</v>
+        <v>361.9</v>
       </c>
       <c r="I8" s="8">
-        <v>560.8</v>
+        <v>440.4</v>
       </c>
       <c r="J8" s="8">
-        <v>584.7</v>
-      </c>
-      <c r="K8" s="8">
-        <v>461.05</v>
-      </c>
-      <c r="L8" s="8">
-        <v>481.2</v>
-      </c>
-      <c r="M8" s="9">
-        <v>452.0</v>
+        <v>574.6</v>
+      </c>
+      <c r="K8" s="9">
+        <v>471.0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>234.44</v>
+      </c>
+      <c r="M8" s="10">
+        <v>372.3</v>
       </c>
       <c r="N8" s="8">
-        <v>515.3</v>
+        <v>368.4</v>
       </c>
       <c r="O8" s="8">
-        <v>785.25</v>
+        <v>382.8</v>
       </c>
       <c r="P8" s="8">
-        <v>345.3</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>635.9</v>
+        <v>579.1</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>691.5</v>
       </c>
       <c r="R8" s="8">
-        <v>606.05</v>
+        <v>558.2</v>
       </c>
       <c r="S8" s="8">
-        <v>352.25</v>
+        <v>370.1</v>
       </c>
       <c r="T8" s="8">
-        <v>461.0</v>
+        <v>617.91</v>
       </c>
       <c r="U8" s="8">
-        <v>346.5</v>
-      </c>
-      <c r="V8" s="14">
-        <v>542.0</v>
+        <v>446.0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>851.4</v>
       </c>
       <c r="W8" s="8">
-        <v>607.5</v>
-      </c>
-      <c r="X8" s="8">
-        <v>487.5</v>
-      </c>
+        <v>492.32</v>
+      </c>
+      <c r="X8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>51.246</v>
-      </c>
-      <c r="C9" s="8">
-        <v>51.411</v>
-      </c>
+        <v>52.324</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="8">
-        <v>51.478</v>
+        <v>52.481</v>
       </c>
       <c r="E9" s="8">
-        <v>51.705</v>
+        <v>52.363</v>
       </c>
       <c r="F9" s="8">
-        <v>52.141</v>
-      </c>
-      <c r="G9" s="8">
-        <v>52.234</v>
-      </c>
+        <v>52.488</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8">
-        <v>52.227</v>
+        <v>52.385</v>
       </c>
       <c r="I9" s="8">
-        <v>52.179</v>
+        <v>52.257</v>
       </c>
       <c r="J9" s="8">
-        <v>52.267</v>
-      </c>
-      <c r="K9" s="8">
-        <v>52.451</v>
-      </c>
-      <c r="L9" s="8">
-        <v>52.389</v>
-      </c>
-      <c r="M9" s="9">
-        <v>52.258</v>
+        <v>52.438</v>
+      </c>
+      <c r="K9" s="9">
+        <v>52.441</v>
+      </c>
+      <c r="L9" s="9">
+        <v>52.47</v>
+      </c>
+      <c r="M9" s="10">
+        <v>52.437</v>
       </c>
       <c r="N9" s="8">
-        <v>52.179</v>
+        <v>52.426</v>
       </c>
       <c r="O9" s="8">
-        <v>52.338</v>
+        <v>52.381</v>
       </c>
       <c r="P9" s="8">
-        <v>52.363</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>52.446</v>
+        <v>52.233</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>52.223</v>
       </c>
       <c r="R9" s="8">
-        <v>52.381</v>
+        <v>52.307</v>
       </c>
       <c r="S9" s="8">
-        <v>52.335</v>
+        <v>52.348</v>
       </c>
       <c r="T9" s="8">
-        <v>52.195</v>
+        <v>52.415</v>
       </c>
       <c r="U9" s="8">
-        <v>52.193</v>
-      </c>
-      <c r="V9" s="12">
-        <v>52.049</v>
+        <v>52.287</v>
+      </c>
+      <c r="V9" s="14">
+        <v>52.277</v>
       </c>
       <c r="W9" s="8">
-        <v>51.973</v>
-      </c>
-      <c r="X9" s="8">
-        <v>51.851</v>
-      </c>
+        <v>52.405</v>
+      </c>
+      <c r="X9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>517.54</v>
-      </c>
-      <c r="C10" s="8">
-        <v>420.66</v>
-      </c>
+        <v>395.0</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8">
-        <v>407.13</v>
+        <v>614.1</v>
       </c>
       <c r="E10" s="8">
-        <v>321.0</v>
+        <v>345.0</v>
       </c>
       <c r="F10" s="8">
-        <v>672.4</v>
-      </c>
-      <c r="G10" s="8">
-        <v>636.5</v>
-      </c>
+        <v>437.0</v>
+      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8">
-        <v>624.7</v>
+        <v>329.7</v>
       </c>
       <c r="I10" s="8">
-        <v>647.6</v>
+        <v>458.5</v>
       </c>
       <c r="J10" s="8">
-        <v>515.1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>345.5</v>
-      </c>
-      <c r="L10" s="8">
-        <v>529.4</v>
-      </c>
-      <c r="M10" s="9">
-        <v>594.4</v>
+        <v>506.2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>507.4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>315.4</v>
+      </c>
+      <c r="M10" s="10">
+        <v>470.8</v>
       </c>
       <c r="N10" s="8">
-        <v>482.9</v>
+        <v>437.5</v>
       </c>
       <c r="O10" s="8">
-        <v>659.8</v>
+        <v>736.2</v>
       </c>
       <c r="P10" s="8">
-        <v>254.5</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>317.2</v>
+        <v>712.1</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>506.7</v>
       </c>
       <c r="R10" s="8">
-        <v>409.0</v>
+        <v>466.65</v>
       </c>
       <c r="S10" s="8">
-        <v>608.7</v>
+        <v>434.1</v>
       </c>
       <c r="T10" s="8">
-        <v>644.5</v>
+        <v>368.1</v>
       </c>
       <c r="U10" s="8">
-        <v>432.05</v>
-      </c>
-      <c r="V10" s="15">
-        <v>505.4</v>
+        <v>608.32</v>
+      </c>
+      <c r="V10" s="11">
+        <v>343.7</v>
       </c>
       <c r="W10" s="8">
-        <v>512.0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>559.5</v>
-      </c>
+        <v>433.3</v>
+      </c>
+      <c r="X10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>51.249</v>
-      </c>
-      <c r="C11" s="8">
-        <v>51.391</v>
-      </c>
+        <v>52.297</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="8">
-        <v>51.47</v>
+        <v>52.46</v>
       </c>
       <c r="E11" s="8">
-        <v>51.696</v>
+        <v>52.331</v>
       </c>
       <c r="F11" s="8">
-        <v>52.061</v>
-      </c>
-      <c r="G11" s="8">
-        <v>52.195</v>
-      </c>
+        <v>52.485</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8">
-        <v>52.239</v>
+        <v>52.402</v>
       </c>
       <c r="I11" s="8">
-        <v>52.155</v>
+        <v>52.267</v>
       </c>
       <c r="J11" s="8">
-        <v>52.268</v>
-      </c>
-      <c r="K11" s="8">
-        <v>52.423</v>
-      </c>
-      <c r="L11" s="8">
-        <v>52.402</v>
-      </c>
-      <c r="M11" s="9">
-        <v>52.285</v>
+        <v>52.386</v>
+      </c>
+      <c r="K11" s="9">
+        <v>52.434</v>
+      </c>
+      <c r="L11" s="9">
+        <v>52.455</v>
+      </c>
+      <c r="M11" s="10">
+        <v>52.448</v>
       </c>
       <c r="N11" s="8">
-        <v>52.167</v>
+        <v>52.422</v>
       </c>
       <c r="O11" s="8">
-        <v>52.336</v>
+        <v>52.39</v>
       </c>
       <c r="P11" s="8">
-        <v>52.365</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>52.427</v>
+        <v>52.271</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>52.25</v>
       </c>
       <c r="R11" s="8">
-        <v>52.373</v>
+        <v>52.329</v>
       </c>
       <c r="S11" s="8">
-        <v>52.364</v>
+        <v>52.349</v>
       </c>
       <c r="T11" s="8">
-        <v>52.211</v>
+        <v>52.379</v>
       </c>
       <c r="U11" s="8">
-        <v>52.21</v>
-      </c>
-      <c r="V11" s="12">
-        <v>52.069</v>
+        <v>52.302</v>
+      </c>
+      <c r="V11" s="14">
+        <v>52.243</v>
       </c>
       <c r="W11" s="8">
-        <v>51.96</v>
-      </c>
-      <c r="X11" s="8">
-        <v>51.906</v>
-      </c>
+        <v>52.412</v>
+      </c>
+      <c r="X11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>942.21</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1032.66</v>
-      </c>
+        <v>840.7</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="8">
-        <v>789.38</v>
+        <v>1339.6</v>
       </c>
       <c r="E12" s="8">
-        <v>793.22</v>
+        <v>907.5</v>
       </c>
       <c r="F12" s="8">
-        <v>1580.4</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1334.75</v>
-      </c>
+        <v>878.5</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="8">
-        <v>1135.62</v>
+        <v>691.6</v>
       </c>
       <c r="I12" s="8">
-        <v>1208.4</v>
+        <v>898.9</v>
       </c>
       <c r="J12" s="8">
-        <v>1099.8</v>
-      </c>
-      <c r="K12" s="8">
-        <v>806.55</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1010.6</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1046.4</v>
+        <v>1080.8</v>
+      </c>
+      <c r="K12" s="9">
+        <v>978.4</v>
+      </c>
+      <c r="L12" s="9">
+        <v>549.84</v>
+      </c>
+      <c r="M12" s="10">
+        <v>843.1</v>
       </c>
       <c r="N12" s="8">
-        <v>998.2</v>
+        <v>805.9</v>
       </c>
       <c r="O12" s="8">
-        <v>1445.05</v>
+        <v>1119.0</v>
       </c>
       <c r="P12" s="8">
-        <v>599.8</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>953.1</v>
+        <v>1291.2</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>1198.2</v>
       </c>
       <c r="R12" s="8">
-        <v>1015.05</v>
+        <v>1024.85</v>
       </c>
       <c r="S12" s="8">
-        <v>960.95</v>
+        <v>804.2</v>
       </c>
       <c r="T12" s="8">
-        <v>1105.5</v>
+        <v>986.01</v>
       </c>
       <c r="U12" s="8">
-        <v>778.55</v>
-      </c>
-      <c r="V12" s="15">
-        <v>1047.4</v>
+        <v>1054.32</v>
+      </c>
+      <c r="V12" s="11">
+        <v>1195.1</v>
       </c>
       <c r="W12" s="8">
-        <v>1119.5</v>
-      </c>
-      <c r="X12" s="8">
-        <v>1047.0</v>
-      </c>
+        <v>925.62</v>
+      </c>
+      <c r="X12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>51.253</v>
-      </c>
-      <c r="C13" s="8">
-        <v>51.378</v>
-      </c>
+        <v>52.272</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8">
-        <v>51.461</v>
+        <v>52.442</v>
       </c>
       <c r="E13" s="8">
-        <v>51.689</v>
+        <v>52.311</v>
       </c>
       <c r="F13" s="8">
-        <v>52.001</v>
-      </c>
-      <c r="G13" s="8">
-        <v>52.159</v>
-      </c>
+        <v>52.483</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8">
-        <v>52.253</v>
+        <v>52.417</v>
       </c>
       <c r="I13" s="8">
-        <v>52.127</v>
+        <v>52.277</v>
       </c>
       <c r="J13" s="8">
+        <v>52.34</v>
+      </c>
+      <c r="K13" s="9">
+        <v>52.426</v>
+      </c>
+      <c r="L13" s="9">
+        <v>52.435</v>
+      </c>
+      <c r="M13" s="8">
+        <v>52.463</v>
+      </c>
+      <c r="N13" s="8">
+        <v>52.418</v>
+      </c>
+      <c r="O13" s="8">
+        <v>52.408</v>
+      </c>
+      <c r="P13" s="8">
+        <v>52.317</v>
+      </c>
+      <c r="Q13" s="15">
         <v>52.269</v>
       </c>
-      <c r="K13" s="8">
-        <v>52.402</v>
-      </c>
-      <c r="L13" s="8">
-        <v>52.416</v>
-      </c>
-      <c r="M13" s="8">
-        <v>52.321</v>
-      </c>
-      <c r="N13" s="8">
-        <v>52.156</v>
-      </c>
-      <c r="O13" s="8">
-        <v>52.335</v>
-      </c>
-      <c r="P13" s="8">
-        <v>52.366</v>
-      </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="8">
+        <v>52.348</v>
+      </c>
+      <c r="S13" s="8">
+        <v>52.35</v>
+      </c>
+      <c r="T13" s="8">
+        <v>52.358</v>
+      </c>
+      <c r="U13" s="8">
+        <v>52.324</v>
+      </c>
+      <c r="V13" s="12">
+        <v>52.23</v>
+      </c>
+      <c r="W13" s="8">
         <v>52.418</v>
       </c>
-      <c r="R13" s="8">
-        <v>52.368</v>
-      </c>
-      <c r="S13" s="8">
-        <v>51.415</v>
-      </c>
-      <c r="T13" s="8">
-        <v>52.232</v>
-      </c>
-      <c r="U13" s="8">
-        <v>52.231</v>
-      </c>
-      <c r="V13" s="12">
-        <v>52.087</v>
-      </c>
-      <c r="W13" s="8">
-        <v>51.949</v>
-      </c>
-      <c r="X13" s="8">
-        <v>51.969</v>
-      </c>
+      <c r="X13" s="8"/>
     </row>
     <row r="15">
       <c r="D15" s="8"/>
@@ -2302,846 +2205,894 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="15.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
-        <f>workday("02/02/2022",0)</f>
-        <v>44594</v>
+        <f>workday("04/01/2022",0)</f>
+        <v>44652</v>
       </c>
       <c r="C1" s="2">
-        <f t="shared" ref="C1:T1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
-        <v>44595</v>
+        <f t="shared" ref="C1:V1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
+        <v>44655</v>
       </c>
       <c r="D1" s="2">
         <f t="shared" si="1"/>
-        <v>44596</v>
+        <v>44656</v>
       </c>
       <c r="E1" s="2">
         <f t="shared" si="1"/>
-        <v>44599</v>
+        <v>44657</v>
       </c>
       <c r="F1" s="2">
         <f t="shared" si="1"/>
-        <v>44600</v>
+        <v>44658</v>
       </c>
       <c r="G1" s="2">
         <f t="shared" si="1"/>
-        <v>44601</v>
+        <v>44659</v>
       </c>
       <c r="H1" s="2">
         <f t="shared" si="1"/>
-        <v>44602</v>
+        <v>44662</v>
       </c>
       <c r="I1" s="2">
         <f t="shared" si="1"/>
-        <v>44603</v>
+        <v>44663</v>
       </c>
       <c r="J1" s="2">
         <f t="shared" si="1"/>
-        <v>44606</v>
-      </c>
-      <c r="K1" s="2">
-        <f t="shared" si="1"/>
-        <v>44607</v>
-      </c>
-      <c r="L1" s="2">
-        <f t="shared" si="1"/>
-        <v>44608</v>
+        <v>44664</v>
+      </c>
+      <c r="K1" s="16">
+        <f t="shared" si="1"/>
+        <v>44665</v>
+      </c>
+      <c r="L1" s="16">
+        <f t="shared" si="1"/>
+        <v>44666</v>
       </c>
       <c r="M1" s="2">
         <f t="shared" si="1"/>
-        <v>44609</v>
+        <v>44669</v>
       </c>
       <c r="N1" s="2">
         <f t="shared" si="1"/>
-        <v>44610</v>
+        <v>44670</v>
       </c>
       <c r="O1" s="2">
         <f t="shared" si="1"/>
-        <v>44613</v>
+        <v>44671</v>
       </c>
       <c r="P1" s="2">
         <f t="shared" si="1"/>
-        <v>44614</v>
+        <v>44672</v>
       </c>
       <c r="Q1" s="2">
         <f t="shared" si="1"/>
-        <v>44615</v>
+        <v>44673</v>
       </c>
       <c r="R1" s="2">
         <f t="shared" si="1"/>
-        <v>44616</v>
+        <v>44676</v>
       </c>
       <c r="S1" s="2">
         <f t="shared" si="1"/>
-        <v>44617</v>
+        <v>44677</v>
       </c>
       <c r="T1" s="2">
         <f t="shared" si="1"/>
-        <v>44620</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+        <v>44678</v>
+      </c>
+      <c r="U1" s="2">
+        <f t="shared" si="1"/>
+        <v>44679</v>
+      </c>
+      <c r="V1" s="2">
+        <f t="shared" si="1"/>
+        <v>44680</v>
+      </c>
       <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
+        <v>0.37539351851851854</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.37636574074074075</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.3757523148148148</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.37515046296296295</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.3753356481481481</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.3752662037037037</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.3765162037037037</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.3771412037037037</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.3755671296296296</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.3752662037037037</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.37525462962962963</v>
-      </c>
       <c r="H2" s="5">
-        <v>0.37864583333333335</v>
+        <v>0.37539351851851854</v>
       </c>
       <c r="I2" s="5">
-        <v>0.37519675925925927</v>
+        <v>0.3752083333333333</v>
       </c>
       <c r="J2" s="5">
-        <v>0.37613425925925925</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.3784490740740741</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0.3771759259259259</v>
+        <v>0.3753472222222222</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="M2" s="5">
-        <v>0.37649305555555557</v>
+        <v>0.37515046296296295</v>
       </c>
       <c r="N2" s="5">
-        <v>0.3801157407407407</v>
+        <v>0.3754513888888889</v>
       </c>
       <c r="O2" s="5">
-        <v>0.3755324074074074</v>
+        <v>0.3753125</v>
       </c>
       <c r="P2" s="5">
-        <v>0.37561342592592595</v>
+        <v>0.3752314814814815</v>
       </c>
       <c r="Q2" s="7">
         <v>0.37528935185185186</v>
       </c>
       <c r="R2" s="5">
-        <v>0.37547453703703704</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>14</v>
+        <v>0.37827546296296294</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.3752083333333333</v>
       </c>
       <c r="T2" s="5">
-        <v>0.37754629629629627</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+        <v>0.3754513888888889</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.37582175925925926</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.37537037037037035</v>
+      </c>
       <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>51.05</v>
+        <v>51.79</v>
       </c>
       <c r="C3" s="8">
-        <v>51.0</v>
+        <v>51.6</v>
       </c>
       <c r="D3" s="8">
-        <v>51.0</v>
+        <v>51.32</v>
       </c>
       <c r="E3" s="8">
         <v>51.25</v>
       </c>
       <c r="F3" s="8">
-        <v>51.4</v>
+        <v>51.37</v>
       </c>
       <c r="G3" s="8">
-        <v>51.43</v>
+        <v>51.45</v>
       </c>
       <c r="H3" s="8">
-        <v>51.3</v>
+        <v>51.7</v>
       </c>
       <c r="I3" s="8">
-        <v>51.36</v>
+        <v>52.15</v>
       </c>
       <c r="J3" s="8">
-        <v>51.38</v>
-      </c>
-      <c r="K3" s="8">
-        <v>51.36</v>
-      </c>
-      <c r="L3" s="8">
-        <v>51.319</v>
-      </c>
-      <c r="M3" s="9">
-        <v>51.27</v>
+        <v>52.1</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="10">
+        <v>52.15</v>
       </c>
       <c r="N3" s="8">
-        <v>51.34</v>
+        <v>52.35</v>
       </c>
       <c r="O3" s="8">
-        <v>51.4</v>
+        <v>52.44</v>
       </c>
       <c r="P3" s="8">
-        <v>51.4</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>51.35</v>
+        <v>52.4</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>52.44</v>
       </c>
       <c r="R3" s="8">
-        <v>51.18</v>
-      </c>
-      <c r="S3" s="8"/>
+        <v>52.38</v>
+      </c>
+      <c r="S3" s="8">
+        <v>52.35</v>
+      </c>
       <c r="T3" s="8">
-        <v>51.39</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="15"/>
+        <v>52.35</v>
+      </c>
+      <c r="U3" s="8">
+        <v>52.15</v>
+      </c>
+      <c r="V3" s="12">
+        <v>52.43</v>
+      </c>
       <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>51.18</v>
+        <v>51.81</v>
       </c>
       <c r="C4" s="8">
-        <v>51.1</v>
+        <v>51.6</v>
       </c>
       <c r="D4" s="8">
-        <v>51.14</v>
+        <v>51.355</v>
       </c>
       <c r="E4" s="8">
-        <v>51.38</v>
+        <v>51.445</v>
       </c>
       <c r="F4" s="8">
-        <v>51.5</v>
+        <v>51.43</v>
       </c>
       <c r="G4" s="8">
-        <v>51.445</v>
+        <v>51.62</v>
       </c>
       <c r="H4" s="8">
-        <v>51.32</v>
+        <v>52.08</v>
       </c>
       <c r="I4" s="8">
-        <v>51.37</v>
+        <v>52.29</v>
       </c>
       <c r="J4" s="8">
-        <v>51.405</v>
-      </c>
-      <c r="K4" s="8">
-        <v>51.42</v>
-      </c>
-      <c r="L4" s="8">
-        <v>51.34</v>
-      </c>
-      <c r="M4" s="9">
-        <v>51.36</v>
+        <v>52.1</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="10">
+        <v>52.29</v>
       </c>
       <c r="N4" s="8">
-        <v>51.36</v>
+        <v>52.48</v>
       </c>
       <c r="O4" s="8">
-        <v>51.42</v>
+        <v>52.49</v>
       </c>
       <c r="P4" s="8">
-        <v>51.48</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>51.365</v>
+        <v>52.45</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>52.45</v>
       </c>
       <c r="R4" s="8">
-        <v>51.44</v>
-      </c>
-      <c r="S4" s="8"/>
+        <v>52.48</v>
+      </c>
+      <c r="S4" s="8">
+        <v>52.37</v>
+      </c>
       <c r="T4" s="8">
-        <v>51.42</v>
-      </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="11"/>
+        <v>52.375</v>
+      </c>
+      <c r="U4" s="8">
+        <v>52.36</v>
+      </c>
+      <c r="V4" s="12">
+        <v>52.45</v>
+      </c>
       <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>50.99</v>
+        <v>51.55</v>
       </c>
       <c r="C5" s="8">
-        <v>50.92</v>
+        <v>51.31</v>
       </c>
       <c r="D5" s="8">
-        <v>50.95</v>
+        <v>51.14</v>
       </c>
       <c r="E5" s="8">
-        <v>51.22</v>
+        <v>51.25</v>
       </c>
       <c r="F5" s="8">
-        <v>51.38</v>
+        <v>51.33</v>
       </c>
       <c r="G5" s="8">
-        <v>51.32</v>
+        <v>51.45</v>
       </c>
       <c r="H5" s="8">
-        <v>51.21</v>
+        <v>51.69</v>
       </c>
       <c r="I5" s="8">
-        <v>51.29</v>
+        <v>52.06</v>
       </c>
       <c r="J5" s="8">
-        <v>51.32</v>
-      </c>
-      <c r="K5" s="8">
-        <v>51.33</v>
-      </c>
-      <c r="L5" s="8">
-        <v>51.27</v>
-      </c>
-      <c r="M5" s="9">
-        <v>51.235</v>
+        <v>51.88</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="10">
+        <v>52.15</v>
       </c>
       <c r="N5" s="8">
-        <v>51.28</v>
+        <v>52.31</v>
       </c>
       <c r="O5" s="8">
-        <v>51.36</v>
+        <v>52.42</v>
       </c>
       <c r="P5" s="8">
-        <v>51.4</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>51.1</v>
+        <v>52.35</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>52.215</v>
       </c>
       <c r="R5" s="8">
-        <v>51.17</v>
-      </c>
-      <c r="S5" s="8"/>
+        <v>52.38</v>
+      </c>
+      <c r="S5" s="8">
+        <v>52.13</v>
+      </c>
       <c r="T5" s="8">
-        <v>51.265</v>
-      </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="11"/>
+        <v>52.1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>51.96</v>
+      </c>
+      <c r="V5" s="12">
+        <v>52.16</v>
+      </c>
       <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>51.045</v>
+        <v>51.67</v>
       </c>
       <c r="C6" s="8">
-        <v>51.05</v>
+        <v>51.38</v>
       </c>
       <c r="D6" s="8">
-        <v>51.14</v>
+        <v>51.19</v>
       </c>
       <c r="E6" s="8">
-        <v>51.37</v>
+        <v>51.43</v>
       </c>
       <c r="F6" s="8">
-        <v>51.5</v>
+        <v>51.42</v>
       </c>
       <c r="G6" s="8">
-        <v>51.34</v>
+        <v>51.59</v>
       </c>
       <c r="H6" s="8">
-        <v>51.235</v>
+        <v>52.05</v>
       </c>
       <c r="I6" s="8">
-        <v>51.34</v>
+        <v>52.1</v>
       </c>
       <c r="J6" s="8">
-        <v>51.37</v>
-      </c>
-      <c r="K6" s="8">
-        <v>51.382</v>
-      </c>
-      <c r="L6" s="8">
-        <v>51.285</v>
-      </c>
-      <c r="M6" s="9">
-        <v>51.33</v>
+        <v>52.03</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="10">
+        <v>52.27</v>
       </c>
       <c r="N6" s="8">
-        <v>51.35</v>
+        <v>52.46</v>
       </c>
       <c r="O6" s="8">
-        <v>51.38</v>
+        <v>52.49</v>
       </c>
       <c r="P6" s="8">
-        <v>51.45</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>51.1</v>
+        <v>52.365</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>52.315</v>
       </c>
       <c r="R6" s="8">
-        <v>51.34</v>
-      </c>
-      <c r="S6" s="8"/>
+        <v>52.41</v>
+      </c>
+      <c r="S6" s="8">
+        <v>52.25</v>
+      </c>
       <c r="T6" s="8">
-        <v>51.27</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="11"/>
+        <v>52.12</v>
+      </c>
+      <c r="U6" s="8">
+        <v>52.27</v>
+      </c>
+      <c r="V6" s="12">
+        <v>52.19</v>
+      </c>
       <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>51.118</v>
+        <v>51.68</v>
       </c>
       <c r="C7" s="8">
-        <v>51.061</v>
+        <v>51.519</v>
       </c>
       <c r="D7" s="8">
-        <v>51.02</v>
+        <v>51.306</v>
       </c>
       <c r="E7" s="8">
-        <v>51.282</v>
+        <v>51.381</v>
       </c>
       <c r="F7" s="8">
-        <v>51.417</v>
+        <v>51.39</v>
       </c>
       <c r="G7" s="8">
-        <v>51.386</v>
+        <v>51.514</v>
       </c>
       <c r="H7" s="8">
-        <v>51.279</v>
+        <v>51.867</v>
       </c>
       <c r="I7" s="8">
-        <v>51.329</v>
+        <v>52.211</v>
       </c>
       <c r="J7" s="8">
-        <v>51.386</v>
-      </c>
-      <c r="K7" s="8">
-        <v>51.371</v>
-      </c>
-      <c r="L7" s="8">
-        <v>51.304</v>
-      </c>
-      <c r="M7" s="9">
-        <v>51.267</v>
+        <v>51.962</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10">
+        <v>52.22</v>
       </c>
       <c r="N7" s="8">
-        <v>51.315</v>
+        <v>52.358</v>
       </c>
       <c r="O7" s="8">
-        <v>51.393</v>
+        <v>52.452</v>
       </c>
       <c r="P7" s="8">
-        <v>51.445</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>51.338</v>
+        <v>52.398</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>52.392</v>
       </c>
       <c r="R7" s="8">
-        <v>51.237</v>
-      </c>
-      <c r="S7" s="8"/>
+        <v>52.408</v>
+      </c>
+      <c r="S7" s="8">
+        <v>52.276</v>
+      </c>
       <c r="T7" s="8">
-        <v>51.399</v>
-      </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="11"/>
+        <v>52.286</v>
+      </c>
+      <c r="U7" s="8">
+        <v>52.061</v>
+      </c>
+      <c r="V7" s="14">
+        <v>52.374</v>
+      </c>
       <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
-        <v>660.86</v>
+        <v>737.15</v>
       </c>
       <c r="C8" s="8">
-        <v>495.0</v>
+        <v>451.8</v>
       </c>
       <c r="D8" s="8">
-        <v>449.0</v>
+        <v>693.6</v>
       </c>
       <c r="E8" s="8">
-        <v>500.0</v>
+        <v>783.2</v>
       </c>
       <c r="F8" s="8">
-        <v>487.0</v>
+        <v>419.0</v>
       </c>
       <c r="G8" s="8">
-        <v>592.0</v>
+        <v>617.0</v>
       </c>
       <c r="H8" s="8">
-        <v>452.0</v>
+        <v>1072.4</v>
       </c>
       <c r="I8" s="8">
-        <v>497.0</v>
+        <v>733.0</v>
       </c>
       <c r="J8" s="8">
-        <v>329.5</v>
-      </c>
-      <c r="K8" s="8">
-        <v>291.28</v>
-      </c>
-      <c r="L8" s="8">
-        <v>352.0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>385.3</v>
+        <v>462.5</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="10">
+        <v>602.24</v>
       </c>
       <c r="N8" s="8">
-        <v>263.2</v>
+        <v>542.86</v>
       </c>
       <c r="O8" s="8">
-        <v>368.0</v>
+        <v>516.7</v>
       </c>
       <c r="P8" s="8">
-        <v>390.5</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>404.8</v>
+        <v>593.6</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>500.3</v>
       </c>
       <c r="R8" s="8">
-        <v>539.2</v>
-      </c>
-      <c r="S8" s="8"/>
+        <v>302.0</v>
+      </c>
+      <c r="S8" s="8">
+        <v>812.7</v>
+      </c>
       <c r="T8" s="8">
-        <v>467.0</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="15"/>
+        <v>950.35</v>
+      </c>
+      <c r="U8" s="8">
+        <v>709.71</v>
+      </c>
+      <c r="V8" s="18">
+        <v>780.0</v>
+      </c>
       <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>51.082</v>
+        <v>51.645</v>
       </c>
       <c r="C9" s="8">
-        <v>51.023</v>
+        <v>51.41</v>
       </c>
       <c r="D9" s="8">
-        <v>51.038</v>
+        <v>51.213</v>
       </c>
       <c r="E9" s="8">
-        <v>51.305</v>
+        <v>51.395</v>
       </c>
       <c r="F9" s="8">
-        <v>51.453</v>
+        <v>51.381</v>
       </c>
       <c r="G9" s="8">
-        <v>51.363</v>
+        <v>51.547</v>
       </c>
       <c r="H9" s="8">
-        <v>51.255</v>
+        <v>52.004</v>
       </c>
       <c r="I9" s="8">
-        <v>51.329</v>
+        <v>52.137</v>
       </c>
       <c r="J9" s="8">
-        <v>51.362</v>
-      </c>
-      <c r="K9" s="8">
-        <v>51.368</v>
-      </c>
-      <c r="L9" s="8">
-        <v>51.284</v>
-      </c>
-      <c r="M9" s="9">
-        <v>51.306</v>
+        <v>51.984</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="10">
+        <v>52.242</v>
       </c>
       <c r="N9" s="8">
-        <v>51.314</v>
+        <v>52.405</v>
       </c>
       <c r="O9" s="8">
-        <v>51.393</v>
+        <v>52.455</v>
       </c>
       <c r="P9" s="8">
-        <v>51.445</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>51.22</v>
+        <v>52.392</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>52.302</v>
       </c>
       <c r="R9" s="8">
-        <v>51.339</v>
-      </c>
-      <c r="S9" s="8"/>
+        <v>52.442</v>
+      </c>
+      <c r="S9" s="8">
+        <v>52.231</v>
+      </c>
       <c r="T9" s="8">
-        <v>51.364</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="12"/>
+        <v>52.228</v>
+      </c>
+      <c r="U9" s="8">
+        <v>52.236</v>
+      </c>
+      <c r="V9" s="14">
+        <v>52.333</v>
+      </c>
       <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>526.3</v>
+        <v>593.1</v>
       </c>
       <c r="C10" s="8">
-        <v>557.36</v>
+        <v>756.3</v>
       </c>
       <c r="D10" s="8">
-        <v>443.5</v>
+        <v>609.95</v>
       </c>
       <c r="E10" s="8">
-        <v>459.3</v>
+        <v>480.1</v>
       </c>
       <c r="F10" s="8">
-        <v>518.1</v>
+        <v>466.5</v>
       </c>
       <c r="G10" s="8">
-        <v>400.1</v>
+        <v>439.14</v>
       </c>
       <c r="H10" s="8">
-        <v>485.4</v>
+        <v>562.7</v>
       </c>
       <c r="I10" s="8">
-        <v>416.88</v>
+        <v>683.8</v>
       </c>
       <c r="J10" s="8">
-        <v>297.5</v>
-      </c>
-      <c r="K10" s="8">
-        <v>269.0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>244.1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>439.1</v>
+        <v>732.75</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="10">
+        <v>540.08</v>
       </c>
       <c r="N10" s="8">
-        <v>283.0</v>
+        <v>544.5</v>
       </c>
       <c r="O10" s="8">
-        <v>345.5</v>
+        <v>379.1</v>
       </c>
       <c r="P10" s="8">
-        <v>391.9</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>529.4</v>
+        <v>751.0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>782.7</v>
       </c>
       <c r="R10" s="8">
-        <v>620.9</v>
-      </c>
-      <c r="S10" s="8"/>
+        <v>424.0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>685.5</v>
+      </c>
       <c r="T10" s="8">
-        <v>313.5</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="11"/>
+        <v>703.7</v>
+      </c>
+      <c r="U10" s="8">
+        <v>887.3</v>
+      </c>
+      <c r="V10" s="18">
+        <v>419.0</v>
+      </c>
       <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>51.102</v>
+        <v>51.664</v>
       </c>
       <c r="C11" s="8">
-        <v>51.041</v>
+        <v>51.45</v>
       </c>
       <c r="D11" s="8">
-        <v>51.029</v>
+        <v>51.262</v>
       </c>
       <c r="E11" s="8">
-        <v>51.293</v>
+        <v>51.386</v>
       </c>
       <c r="F11" s="8">
-        <v>51.436</v>
+        <v>51.385</v>
       </c>
       <c r="G11" s="8">
-        <v>51.377</v>
+        <v>51.528</v>
       </c>
       <c r="H11" s="8">
-        <v>51.267</v>
+        <v>51.914</v>
       </c>
       <c r="I11" s="8">
-        <v>51.329</v>
+        <v>52.175</v>
       </c>
       <c r="J11" s="8">
-        <v>51.375</v>
-      </c>
-      <c r="K11" s="8">
-        <v>51.37</v>
-      </c>
-      <c r="L11" s="8">
-        <v>51.296</v>
-      </c>
-      <c r="M11" s="9">
-        <v>51.288</v>
+        <v>51.975</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="10">
+        <v>52.231</v>
       </c>
       <c r="N11" s="8">
-        <v>51.314</v>
+        <v>52.381</v>
       </c>
       <c r="O11" s="8">
-        <v>51.393</v>
+        <v>52.453</v>
       </c>
       <c r="P11" s="8">
-        <v>51.445</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>51.271</v>
+        <v>52.395</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>52.337</v>
       </c>
       <c r="R11" s="8">
-        <v>51.291</v>
-      </c>
-      <c r="S11" s="8"/>
+        <v>52.428</v>
+      </c>
+      <c r="S11" s="8">
+        <v>52.255</v>
+      </c>
       <c r="T11" s="8">
-        <v>51.385</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="12"/>
+        <v>52.261</v>
+      </c>
+      <c r="U11" s="8">
+        <v>52.158</v>
+      </c>
+      <c r="V11" s="14">
+        <v>52.335</v>
+      </c>
       <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>1187.16</v>
+        <v>1330.25</v>
       </c>
       <c r="C12" s="8">
-        <v>1052.36</v>
+        <v>1208.1</v>
       </c>
       <c r="D12" s="8">
-        <v>892.5</v>
+        <v>1303.55</v>
       </c>
       <c r="E12" s="8">
-        <v>959.3</v>
+        <v>1263.3</v>
       </c>
       <c r="F12" s="8">
-        <v>1005.1</v>
+        <v>885.5</v>
       </c>
       <c r="G12" s="8">
-        <v>992.1</v>
+        <v>1056.14</v>
       </c>
       <c r="H12" s="8">
-        <v>937.4</v>
+        <v>1635.1</v>
       </c>
       <c r="I12" s="8">
-        <v>913.88</v>
+        <v>1416.8</v>
       </c>
       <c r="J12" s="8">
-        <v>627.0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>560.28</v>
-      </c>
-      <c r="L12" s="8">
-        <v>596.1</v>
-      </c>
-      <c r="M12" s="9">
-        <v>824.4</v>
+        <v>1195.25</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="10">
+        <v>1142.32</v>
       </c>
       <c r="N12" s="8">
-        <v>546.2</v>
+        <v>1087.36</v>
       </c>
       <c r="O12" s="8">
-        <v>713.5</v>
+        <v>895.8</v>
       </c>
       <c r="P12" s="8">
-        <v>782.4</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>934.2</v>
+        <v>1344.6</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>1283.0</v>
       </c>
       <c r="R12" s="8">
-        <v>1160.1</v>
-      </c>
-      <c r="S12" s="8"/>
+        <v>726.0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1498.2</v>
+      </c>
       <c r="T12" s="8">
-        <v>780.5</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="11"/>
+        <v>1654.05</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1597.01</v>
+      </c>
+      <c r="V12" s="18">
+        <v>1199.0</v>
+      </c>
       <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>51.118</v>
+        <v>51.68</v>
       </c>
       <c r="C13" s="8">
-        <v>51.061</v>
+        <v>51.519</v>
       </c>
       <c r="D13" s="8">
-        <v>51.02</v>
+        <v>51.306</v>
       </c>
       <c r="E13" s="8">
-        <v>51.282</v>
+        <v>51.381</v>
       </c>
       <c r="F13" s="8">
-        <v>51.417</v>
+        <v>51.39</v>
       </c>
       <c r="G13" s="8">
-        <v>51.386</v>
+        <v>51.514</v>
       </c>
       <c r="H13" s="8">
-        <v>51.279</v>
+        <v>51.867</v>
       </c>
       <c r="I13" s="8">
-        <v>51.329</v>
+        <v>52.211</v>
       </c>
       <c r="J13" s="8">
-        <v>51.386</v>
-      </c>
-      <c r="K13" s="8">
-        <v>51.371</v>
-      </c>
-      <c r="L13" s="8">
-        <v>51.304</v>
-      </c>
+        <v>51.962</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="8">
-        <v>51.267</v>
+        <v>52.22</v>
       </c>
       <c r="N13" s="8">
-        <v>51.315</v>
+        <v>52.358</v>
       </c>
       <c r="O13" s="8">
-        <v>51.393</v>
+        <v>52.452</v>
       </c>
       <c r="P13" s="8">
-        <v>51.445</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>51.338</v>
+        <v>52.398</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>52.392</v>
       </c>
       <c r="R13" s="8">
-        <v>51.237</v>
-      </c>
-      <c r="S13" s="8"/>
+        <v>52.408</v>
+      </c>
+      <c r="S13" s="8">
+        <v>52.276</v>
+      </c>
       <c r="T13" s="8">
-        <v>51.399</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="12"/>
+        <v>52.286</v>
+      </c>
+      <c r="U13" s="8">
+        <v>52.061</v>
+      </c>
+      <c r="V13" s="14">
+        <v>52.374</v>
+      </c>
       <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
     </row>
     <row r="15">
       <c r="D15" s="8"/>
@@ -3203,6 +3154,1943 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
+        <f>workday("03/01/2022",0)</f>
+        <v>44621</v>
+      </c>
+      <c r="C1" s="2">
+        <f t="shared" ref="C1:X1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
+        <v>44622</v>
+      </c>
+      <c r="D1" s="2">
+        <f t="shared" si="1"/>
+        <v>44623</v>
+      </c>
+      <c r="E1" s="2">
+        <f t="shared" si="1"/>
+        <v>44624</v>
+      </c>
+      <c r="F1" s="2">
+        <f t="shared" si="1"/>
+        <v>44627</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" si="1"/>
+        <v>44628</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" si="1"/>
+        <v>44629</v>
+      </c>
+      <c r="I1" s="2">
+        <f t="shared" si="1"/>
+        <v>44630</v>
+      </c>
+      <c r="J1" s="2">
+        <f t="shared" si="1"/>
+        <v>44631</v>
+      </c>
+      <c r="K1" s="2">
+        <f t="shared" si="1"/>
+        <v>44634</v>
+      </c>
+      <c r="L1" s="2">
+        <f t="shared" si="1"/>
+        <v>44635</v>
+      </c>
+      <c r="M1" s="2">
+        <f t="shared" si="1"/>
+        <v>44636</v>
+      </c>
+      <c r="N1" s="2">
+        <f t="shared" si="1"/>
+        <v>44637</v>
+      </c>
+      <c r="O1" s="2">
+        <f t="shared" si="1"/>
+        <v>44638</v>
+      </c>
+      <c r="P1" s="2">
+        <f t="shared" si="1"/>
+        <v>44641</v>
+      </c>
+      <c r="Q1" s="2">
+        <f t="shared" si="1"/>
+        <v>44642</v>
+      </c>
+      <c r="R1" s="2">
+        <f t="shared" si="1"/>
+        <v>44643</v>
+      </c>
+      <c r="S1" s="2">
+        <f t="shared" si="1"/>
+        <v>44644</v>
+      </c>
+      <c r="T1" s="2">
+        <f t="shared" si="1"/>
+        <v>44645</v>
+      </c>
+      <c r="U1" s="2">
+        <f t="shared" si="1"/>
+        <v>44648</v>
+      </c>
+      <c r="V1" s="2">
+        <f t="shared" si="1"/>
+        <v>44649</v>
+      </c>
+      <c r="W1" s="2">
+        <f t="shared" si="1"/>
+        <v>44650</v>
+      </c>
+      <c r="X1" s="2">
+        <f t="shared" si="1"/>
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.3759953703703704</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.3753240740740741</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.37971064814814814</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.3754166666666667</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.3753587962962963</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.3751851851851852</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.37528935185185186</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.37525462962962963</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.37519675925925927</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.3751273148148148</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.37527777777777777</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.3758564814814815</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.3754050925925926</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.37527777777777777</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.3803009259259259</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.3752314814814815</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.37515046296296295</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.37701388888888887</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.375625</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.3752314814814815</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.37596064814814817</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.37525462962962963</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.3752199074074074</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>51.24</v>
+      </c>
+      <c r="C3" s="8">
+        <v>51.35</v>
+      </c>
+      <c r="D3" s="8">
+        <v>51.43</v>
+      </c>
+      <c r="E3" s="8">
+        <v>51.65</v>
+      </c>
+      <c r="F3" s="8">
+        <v>51.9</v>
+      </c>
+      <c r="G3" s="8">
+        <v>52.25</v>
+      </c>
+      <c r="H3" s="8">
+        <v>52.28</v>
+      </c>
+      <c r="I3" s="8">
+        <v>52.12</v>
+      </c>
+      <c r="J3" s="8">
+        <v>52.25</v>
+      </c>
+      <c r="K3" s="8">
+        <v>52.32</v>
+      </c>
+      <c r="L3" s="8">
+        <v>52.495</v>
+      </c>
+      <c r="M3" s="10">
+        <v>52.375</v>
+      </c>
+      <c r="N3" s="8">
+        <v>52.18</v>
+      </c>
+      <c r="O3" s="8">
+        <v>52.2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>52.31</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>52.44</v>
+      </c>
+      <c r="R3" s="8">
+        <v>52.42</v>
+      </c>
+      <c r="S3" s="8">
+        <v>52.41</v>
+      </c>
+      <c r="T3" s="8">
+        <v>52.305</v>
+      </c>
+      <c r="U3" s="8">
+        <v>52.18</v>
+      </c>
+      <c r="V3" s="12">
+        <v>52.07</v>
+      </c>
+      <c r="W3" s="8">
+        <v>52.02</v>
+      </c>
+      <c r="X3" s="8">
+        <v>51.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>51.295</v>
+      </c>
+      <c r="C4" s="8">
+        <v>51.455</v>
+      </c>
+      <c r="D4" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>51.75</v>
+      </c>
+      <c r="F4" s="8">
+        <v>52.19</v>
+      </c>
+      <c r="G4" s="8">
+        <v>52.34</v>
+      </c>
+      <c r="H4" s="8">
+        <v>52.31</v>
+      </c>
+      <c r="I4" s="8">
+        <v>52.24</v>
+      </c>
+      <c r="J4" s="8">
+        <v>52.34</v>
+      </c>
+      <c r="K4" s="8">
+        <v>52.49</v>
+      </c>
+      <c r="L4" s="8">
+        <v>52.495</v>
+      </c>
+      <c r="M4" s="10">
+        <v>52.375</v>
+      </c>
+      <c r="N4" s="8">
+        <v>52.22</v>
+      </c>
+      <c r="O4" s="8">
+        <v>52.43</v>
+      </c>
+      <c r="P4" s="8">
+        <v>52.4</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>52.47</v>
+      </c>
+      <c r="R4" s="8">
+        <v>52.42</v>
+      </c>
+      <c r="S4" s="8">
+        <v>52.43</v>
+      </c>
+      <c r="T4" s="8">
+        <v>52.305</v>
+      </c>
+      <c r="U4" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="V4" s="12">
+        <v>52.13</v>
+      </c>
+      <c r="W4" s="8">
+        <v>52.04</v>
+      </c>
+      <c r="X4" s="8">
+        <v>51.995</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>51.21</v>
+      </c>
+      <c r="C5" s="8">
+        <v>51.32</v>
+      </c>
+      <c r="D5" s="8">
+        <v>51.42</v>
+      </c>
+      <c r="E5" s="8">
+        <v>51.6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>51.85</v>
+      </c>
+      <c r="G5" s="8">
+        <v>52.01</v>
+      </c>
+      <c r="H5" s="8">
+        <v>52.15</v>
+      </c>
+      <c r="I5" s="8">
+        <v>52.05</v>
+      </c>
+      <c r="J5" s="8">
+        <v>52.21</v>
+      </c>
+      <c r="K5" s="8">
+        <v>52.32</v>
+      </c>
+      <c r="L5" s="8">
+        <v>52.33</v>
+      </c>
+      <c r="M5" s="10">
+        <v>52.2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>52.2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>52.31</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>52.385</v>
+      </c>
+      <c r="R5" s="8">
+        <v>52.33</v>
+      </c>
+      <c r="S5" s="8">
+        <v>52.15</v>
+      </c>
+      <c r="T5" s="8">
+        <v>52.12</v>
+      </c>
+      <c r="U5" s="8">
+        <v>52.08</v>
+      </c>
+      <c r="V5" s="12">
+        <v>51.99</v>
+      </c>
+      <c r="W5" s="8">
+        <v>51.92</v>
+      </c>
+      <c r="X5" s="8">
+        <v>51.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>51.23</v>
+      </c>
+      <c r="C6" s="8">
+        <v>51.42</v>
+      </c>
+      <c r="D6" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>51.74</v>
+      </c>
+      <c r="F6" s="8">
+        <v>52.18</v>
+      </c>
+      <c r="G6" s="8">
+        <v>52.32</v>
+      </c>
+      <c r="H6" s="8">
+        <v>52.23</v>
+      </c>
+      <c r="I6" s="8">
+        <v>52.155</v>
+      </c>
+      <c r="J6" s="8">
+        <v>52.29</v>
+      </c>
+      <c r="K6" s="8">
+        <v>52.475</v>
+      </c>
+      <c r="L6" s="8">
+        <v>52.415</v>
+      </c>
+      <c r="M6" s="10">
+        <v>52.31</v>
+      </c>
+      <c r="N6" s="8">
+        <v>52.14</v>
+      </c>
+      <c r="O6" s="8">
+        <v>52.335</v>
+      </c>
+      <c r="P6" s="8">
+        <v>52.35</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>52.44</v>
+      </c>
+      <c r="R6" s="8">
+        <v>52.39</v>
+      </c>
+      <c r="S6" s="8">
+        <v>52.33</v>
+      </c>
+      <c r="T6" s="8">
+        <v>52.15</v>
+      </c>
+      <c r="U6" s="8">
+        <v>52.13</v>
+      </c>
+      <c r="V6" s="14">
+        <v>52.075</v>
+      </c>
+      <c r="W6" s="8">
+        <v>52.01</v>
+      </c>
+      <c r="X6" s="8">
+        <v>51.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>51.253</v>
+      </c>
+      <c r="C7" s="8">
+        <v>51.378</v>
+      </c>
+      <c r="D7" s="8">
+        <v>51.461</v>
+      </c>
+      <c r="E7" s="8">
+        <v>51.689</v>
+      </c>
+      <c r="F7" s="8">
+        <v>52.001</v>
+      </c>
+      <c r="G7" s="8">
+        <v>52.159</v>
+      </c>
+      <c r="H7" s="8">
+        <v>52.253</v>
+      </c>
+      <c r="I7" s="8">
+        <v>52.127</v>
+      </c>
+      <c r="J7" s="8">
+        <v>52.269</v>
+      </c>
+      <c r="K7" s="8">
+        <v>52.402</v>
+      </c>
+      <c r="L7" s="8">
+        <v>52.416</v>
+      </c>
+      <c r="M7" s="10">
+        <v>52.321</v>
+      </c>
+      <c r="N7" s="8">
+        <v>52.156</v>
+      </c>
+      <c r="O7" s="8">
+        <v>52.335</v>
+      </c>
+      <c r="P7" s="8">
+        <v>52.366</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>52.418</v>
+      </c>
+      <c r="R7" s="8">
+        <v>52.368</v>
+      </c>
+      <c r="S7" s="8">
+        <v>52.415</v>
+      </c>
+      <c r="T7" s="8">
+        <v>52.232</v>
+      </c>
+      <c r="U7" s="8">
+        <v>52.231</v>
+      </c>
+      <c r="V7" s="14">
+        <v>52.087</v>
+      </c>
+      <c r="W7" s="8">
+        <v>51.949</v>
+      </c>
+      <c r="X7" s="8">
+        <v>51.969</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>424.67</v>
+      </c>
+      <c r="C8" s="8">
+        <v>612.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>382.25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>472.22</v>
+      </c>
+      <c r="F8" s="8">
+        <v>908.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>698.25</v>
+      </c>
+      <c r="H8" s="8">
+        <v>510.92</v>
+      </c>
+      <c r="I8" s="8">
+        <v>560.8</v>
+      </c>
+      <c r="J8" s="8">
+        <v>584.7</v>
+      </c>
+      <c r="K8" s="8">
+        <v>461.05</v>
+      </c>
+      <c r="L8" s="8">
+        <v>481.2</v>
+      </c>
+      <c r="M8" s="10">
+        <v>452.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>515.3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>785.25</v>
+      </c>
+      <c r="P8" s="8">
+        <v>345.3</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>635.9</v>
+      </c>
+      <c r="R8" s="8">
+        <v>606.05</v>
+      </c>
+      <c r="S8" s="8">
+        <v>352.25</v>
+      </c>
+      <c r="T8" s="8">
+        <v>461.0</v>
+      </c>
+      <c r="U8" s="8">
+        <v>346.5</v>
+      </c>
+      <c r="V8" s="18">
+        <v>542.0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>607.5</v>
+      </c>
+      <c r="X8" s="8">
+        <v>487.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>51.246</v>
+      </c>
+      <c r="C9" s="8">
+        <v>51.411</v>
+      </c>
+      <c r="D9" s="8">
+        <v>51.478</v>
+      </c>
+      <c r="E9" s="8">
+        <v>51.705</v>
+      </c>
+      <c r="F9" s="8">
+        <v>52.141</v>
+      </c>
+      <c r="G9" s="8">
+        <v>52.234</v>
+      </c>
+      <c r="H9" s="8">
+        <v>52.227</v>
+      </c>
+      <c r="I9" s="8">
+        <v>52.179</v>
+      </c>
+      <c r="J9" s="8">
+        <v>52.267</v>
+      </c>
+      <c r="K9" s="8">
+        <v>52.451</v>
+      </c>
+      <c r="L9" s="8">
+        <v>52.389</v>
+      </c>
+      <c r="M9" s="10">
+        <v>52.258</v>
+      </c>
+      <c r="N9" s="8">
+        <v>52.179</v>
+      </c>
+      <c r="O9" s="8">
+        <v>52.338</v>
+      </c>
+      <c r="P9" s="8">
+        <v>52.363</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>52.446</v>
+      </c>
+      <c r="R9" s="8">
+        <v>52.381</v>
+      </c>
+      <c r="S9" s="8">
+        <v>52.335</v>
+      </c>
+      <c r="T9" s="8">
+        <v>52.195</v>
+      </c>
+      <c r="U9" s="8">
+        <v>52.193</v>
+      </c>
+      <c r="V9" s="14">
+        <v>52.049</v>
+      </c>
+      <c r="W9" s="8">
+        <v>51.973</v>
+      </c>
+      <c r="X9" s="8">
+        <v>51.851</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>517.54</v>
+      </c>
+      <c r="C10" s="8">
+        <v>420.66</v>
+      </c>
+      <c r="D10" s="8">
+        <v>407.13</v>
+      </c>
+      <c r="E10" s="8">
+        <v>321.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>672.4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>636.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>624.7</v>
+      </c>
+      <c r="I10" s="8">
+        <v>647.6</v>
+      </c>
+      <c r="J10" s="8">
+        <v>515.1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>345.5</v>
+      </c>
+      <c r="L10" s="8">
+        <v>529.4</v>
+      </c>
+      <c r="M10" s="10">
+        <v>594.4</v>
+      </c>
+      <c r="N10" s="8">
+        <v>482.9</v>
+      </c>
+      <c r="O10" s="8">
+        <v>659.8</v>
+      </c>
+      <c r="P10" s="8">
+        <v>254.5</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>317.2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>409.0</v>
+      </c>
+      <c r="S10" s="8">
+        <v>608.7</v>
+      </c>
+      <c r="T10" s="8">
+        <v>644.5</v>
+      </c>
+      <c r="U10" s="8">
+        <v>432.05</v>
+      </c>
+      <c r="V10" s="11">
+        <v>505.4</v>
+      </c>
+      <c r="W10" s="8">
+        <v>512.0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>559.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>51.249</v>
+      </c>
+      <c r="C11" s="8">
+        <v>51.391</v>
+      </c>
+      <c r="D11" s="8">
+        <v>51.47</v>
+      </c>
+      <c r="E11" s="8">
+        <v>51.696</v>
+      </c>
+      <c r="F11" s="8">
+        <v>52.061</v>
+      </c>
+      <c r="G11" s="8">
+        <v>52.195</v>
+      </c>
+      <c r="H11" s="8">
+        <v>52.239</v>
+      </c>
+      <c r="I11" s="8">
+        <v>52.155</v>
+      </c>
+      <c r="J11" s="8">
+        <v>52.268</v>
+      </c>
+      <c r="K11" s="8">
+        <v>52.423</v>
+      </c>
+      <c r="L11" s="8">
+        <v>52.402</v>
+      </c>
+      <c r="M11" s="10">
+        <v>52.285</v>
+      </c>
+      <c r="N11" s="8">
+        <v>52.167</v>
+      </c>
+      <c r="O11" s="8">
+        <v>52.336</v>
+      </c>
+      <c r="P11" s="8">
+        <v>52.365</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>52.427</v>
+      </c>
+      <c r="R11" s="8">
+        <v>52.373</v>
+      </c>
+      <c r="S11" s="8">
+        <v>52.364</v>
+      </c>
+      <c r="T11" s="8">
+        <v>52.211</v>
+      </c>
+      <c r="U11" s="8">
+        <v>52.21</v>
+      </c>
+      <c r="V11" s="14">
+        <v>52.069</v>
+      </c>
+      <c r="W11" s="8">
+        <v>51.96</v>
+      </c>
+      <c r="X11" s="8">
+        <v>51.906</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>942.21</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1032.66</v>
+      </c>
+      <c r="D12" s="8">
+        <v>789.38</v>
+      </c>
+      <c r="E12" s="8">
+        <v>793.22</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1580.4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1334.75</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1135.62</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1208.4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1099.8</v>
+      </c>
+      <c r="K12" s="8">
+        <v>806.55</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1010.6</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1046.4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>998.2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1445.05</v>
+      </c>
+      <c r="P12" s="8">
+        <v>599.8</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>953.1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1015.05</v>
+      </c>
+      <c r="S12" s="8">
+        <v>960.95</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1105.5</v>
+      </c>
+      <c r="U12" s="8">
+        <v>778.55</v>
+      </c>
+      <c r="V12" s="11">
+        <v>1047.4</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1119.5</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1047.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>51.253</v>
+      </c>
+      <c r="C13" s="8">
+        <v>51.378</v>
+      </c>
+      <c r="D13" s="8">
+        <v>51.461</v>
+      </c>
+      <c r="E13" s="8">
+        <v>51.689</v>
+      </c>
+      <c r="F13" s="8">
+        <v>52.001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>52.159</v>
+      </c>
+      <c r="H13" s="8">
+        <v>52.253</v>
+      </c>
+      <c r="I13" s="8">
+        <v>52.127</v>
+      </c>
+      <c r="J13" s="8">
+        <v>52.269</v>
+      </c>
+      <c r="K13" s="8">
+        <v>52.402</v>
+      </c>
+      <c r="L13" s="8">
+        <v>52.416</v>
+      </c>
+      <c r="M13" s="8">
+        <v>52.321</v>
+      </c>
+      <c r="N13" s="8">
+        <v>52.156</v>
+      </c>
+      <c r="O13" s="8">
+        <v>52.335</v>
+      </c>
+      <c r="P13" s="8">
+        <v>52.366</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>52.418</v>
+      </c>
+      <c r="R13" s="8">
+        <v>52.368</v>
+      </c>
+      <c r="S13" s="8">
+        <v>51.415</v>
+      </c>
+      <c r="T13" s="8">
+        <v>52.232</v>
+      </c>
+      <c r="U13" s="8">
+        <v>52.231</v>
+      </c>
+      <c r="V13" s="14">
+        <v>52.087</v>
+      </c>
+      <c r="W13" s="8">
+        <v>51.949</v>
+      </c>
+      <c r="X13" s="8">
+        <v>51.969</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V2:V13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <f>workday("02/02/2022",0)</f>
+        <v>44594</v>
+      </c>
+      <c r="C1" s="2">
+        <f t="shared" ref="C1:T1" si="1">if(weekday(B1)=6,B1+3,B1+1)</f>
+        <v>44595</v>
+      </c>
+      <c r="D1" s="2">
+        <f t="shared" si="1"/>
+        <v>44596</v>
+      </c>
+      <c r="E1" s="2">
+        <f t="shared" si="1"/>
+        <v>44599</v>
+      </c>
+      <c r="F1" s="2">
+        <f t="shared" si="1"/>
+        <v>44600</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" si="1"/>
+        <v>44601</v>
+      </c>
+      <c r="H1" s="2">
+        <f t="shared" si="1"/>
+        <v>44602</v>
+      </c>
+      <c r="I1" s="2">
+        <f t="shared" si="1"/>
+        <v>44603</v>
+      </c>
+      <c r="J1" s="2">
+        <f t="shared" si="1"/>
+        <v>44606</v>
+      </c>
+      <c r="K1" s="2">
+        <f t="shared" si="1"/>
+        <v>44607</v>
+      </c>
+      <c r="L1" s="2">
+        <f t="shared" si="1"/>
+        <v>44608</v>
+      </c>
+      <c r="M1" s="2">
+        <f t="shared" si="1"/>
+        <v>44609</v>
+      </c>
+      <c r="N1" s="2">
+        <f t="shared" si="1"/>
+        <v>44610</v>
+      </c>
+      <c r="O1" s="2">
+        <f t="shared" si="1"/>
+        <v>44613</v>
+      </c>
+      <c r="P1" s="2">
+        <f t="shared" si="1"/>
+        <v>44614</v>
+      </c>
+      <c r="Q1" s="2">
+        <f t="shared" si="1"/>
+        <v>44615</v>
+      </c>
+      <c r="R1" s="2">
+        <f t="shared" si="1"/>
+        <v>44616</v>
+      </c>
+      <c r="S1" s="2">
+        <f t="shared" si="1"/>
+        <v>44617</v>
+      </c>
+      <c r="T1" s="2">
+        <f t="shared" si="1"/>
+        <v>44620</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.3752662037037037</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.3765162037037037</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.3771412037037037</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.3755671296296296</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.3752662037037037</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.37525462962962963</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.37864583333333335</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.37519675925925927</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.37613425925925925</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.3784490740740741</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.3771759259259259</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.37649305555555557</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.3801157407407407</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.3755324074074074</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.37561342592592595</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.37528935185185186</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.37547453703703704</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.37754629629629627</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>51.05</v>
+      </c>
+      <c r="C3" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>51.25</v>
+      </c>
+      <c r="F3" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>51.43</v>
+      </c>
+      <c r="H3" s="8">
+        <v>51.3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>51.36</v>
+      </c>
+      <c r="J3" s="8">
+        <v>51.38</v>
+      </c>
+      <c r="K3" s="8">
+        <v>51.36</v>
+      </c>
+      <c r="L3" s="8">
+        <v>51.319</v>
+      </c>
+      <c r="M3" s="10">
+        <v>51.27</v>
+      </c>
+      <c r="N3" s="8">
+        <v>51.34</v>
+      </c>
+      <c r="O3" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="P3" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>51.35</v>
+      </c>
+      <c r="R3" s="8">
+        <v>51.18</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8">
+        <v>51.39</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>51.18</v>
+      </c>
+      <c r="C4" s="8">
+        <v>51.1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>51.14</v>
+      </c>
+      <c r="E4" s="8">
+        <v>51.38</v>
+      </c>
+      <c r="F4" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="G4" s="8">
+        <v>51.445</v>
+      </c>
+      <c r="H4" s="8">
+        <v>51.32</v>
+      </c>
+      <c r="I4" s="8">
+        <v>51.37</v>
+      </c>
+      <c r="J4" s="8">
+        <v>51.405</v>
+      </c>
+      <c r="K4" s="8">
+        <v>51.42</v>
+      </c>
+      <c r="L4" s="8">
+        <v>51.34</v>
+      </c>
+      <c r="M4" s="10">
+        <v>51.36</v>
+      </c>
+      <c r="N4" s="8">
+        <v>51.36</v>
+      </c>
+      <c r="O4" s="8">
+        <v>51.42</v>
+      </c>
+      <c r="P4" s="8">
+        <v>51.48</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>51.365</v>
+      </c>
+      <c r="R4" s="8">
+        <v>51.44</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8">
+        <v>51.42</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>50.99</v>
+      </c>
+      <c r="C5" s="8">
+        <v>50.92</v>
+      </c>
+      <c r="D5" s="8">
+        <v>50.95</v>
+      </c>
+      <c r="E5" s="8">
+        <v>51.22</v>
+      </c>
+      <c r="F5" s="8">
+        <v>51.38</v>
+      </c>
+      <c r="G5" s="8">
+        <v>51.32</v>
+      </c>
+      <c r="H5" s="8">
+        <v>51.21</v>
+      </c>
+      <c r="I5" s="8">
+        <v>51.29</v>
+      </c>
+      <c r="J5" s="8">
+        <v>51.32</v>
+      </c>
+      <c r="K5" s="8">
+        <v>51.33</v>
+      </c>
+      <c r="L5" s="8">
+        <v>51.27</v>
+      </c>
+      <c r="M5" s="10">
+        <v>51.235</v>
+      </c>
+      <c r="N5" s="8">
+        <v>51.28</v>
+      </c>
+      <c r="O5" s="8">
+        <v>51.36</v>
+      </c>
+      <c r="P5" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>51.1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>51.17</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <v>51.265</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>51.045</v>
+      </c>
+      <c r="C6" s="8">
+        <v>51.05</v>
+      </c>
+      <c r="D6" s="8">
+        <v>51.14</v>
+      </c>
+      <c r="E6" s="8">
+        <v>51.37</v>
+      </c>
+      <c r="F6" s="8">
+        <v>51.5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>51.34</v>
+      </c>
+      <c r="H6" s="8">
+        <v>51.235</v>
+      </c>
+      <c r="I6" s="8">
+        <v>51.34</v>
+      </c>
+      <c r="J6" s="8">
+        <v>51.37</v>
+      </c>
+      <c r="K6" s="8">
+        <v>51.382</v>
+      </c>
+      <c r="L6" s="8">
+        <v>51.285</v>
+      </c>
+      <c r="M6" s="10">
+        <v>51.33</v>
+      </c>
+      <c r="N6" s="8">
+        <v>51.35</v>
+      </c>
+      <c r="O6" s="8">
+        <v>51.38</v>
+      </c>
+      <c r="P6" s="8">
+        <v>51.45</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>51.1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>51.34</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <v>51.27</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>51.118</v>
+      </c>
+      <c r="C7" s="8">
+        <v>51.061</v>
+      </c>
+      <c r="D7" s="8">
+        <v>51.02</v>
+      </c>
+      <c r="E7" s="8">
+        <v>51.282</v>
+      </c>
+      <c r="F7" s="8">
+        <v>51.417</v>
+      </c>
+      <c r="G7" s="8">
+        <v>51.386</v>
+      </c>
+      <c r="H7" s="8">
+        <v>51.279</v>
+      </c>
+      <c r="I7" s="8">
+        <v>51.329</v>
+      </c>
+      <c r="J7" s="8">
+        <v>51.386</v>
+      </c>
+      <c r="K7" s="8">
+        <v>51.371</v>
+      </c>
+      <c r="L7" s="8">
+        <v>51.304</v>
+      </c>
+      <c r="M7" s="10">
+        <v>51.267</v>
+      </c>
+      <c r="N7" s="8">
+        <v>51.315</v>
+      </c>
+      <c r="O7" s="8">
+        <v>51.393</v>
+      </c>
+      <c r="P7" s="8">
+        <v>51.445</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>51.338</v>
+      </c>
+      <c r="R7" s="8">
+        <v>51.237</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <v>51.399</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>660.86</v>
+      </c>
+      <c r="C8" s="8">
+        <v>495.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>449.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>500.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>487.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>592.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>452.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>497.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>329.5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>291.28</v>
+      </c>
+      <c r="L8" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>385.3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>263.2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>368.0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>390.5</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>404.8</v>
+      </c>
+      <c r="R8" s="8">
+        <v>539.2</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>51.082</v>
+      </c>
+      <c r="C9" s="8">
+        <v>51.023</v>
+      </c>
+      <c r="D9" s="8">
+        <v>51.038</v>
+      </c>
+      <c r="E9" s="8">
+        <v>51.305</v>
+      </c>
+      <c r="F9" s="8">
+        <v>51.453</v>
+      </c>
+      <c r="G9" s="8">
+        <v>51.363</v>
+      </c>
+      <c r="H9" s="8">
+        <v>51.255</v>
+      </c>
+      <c r="I9" s="8">
+        <v>51.329</v>
+      </c>
+      <c r="J9" s="8">
+        <v>51.362</v>
+      </c>
+      <c r="K9" s="8">
+        <v>51.368</v>
+      </c>
+      <c r="L9" s="8">
+        <v>51.284</v>
+      </c>
+      <c r="M9" s="10">
+        <v>51.306</v>
+      </c>
+      <c r="N9" s="8">
+        <v>51.314</v>
+      </c>
+      <c r="O9" s="8">
+        <v>51.393</v>
+      </c>
+      <c r="P9" s="8">
+        <v>51.445</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>51.22</v>
+      </c>
+      <c r="R9" s="8">
+        <v>51.339</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8">
+        <v>51.364</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>526.3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>557.36</v>
+      </c>
+      <c r="D10" s="8">
+        <v>443.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>459.3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>518.1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>400.1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>485.4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>416.88</v>
+      </c>
+      <c r="J10" s="8">
+        <v>297.5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>244.1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>439.1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>283.0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>345.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>391.9</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>529.4</v>
+      </c>
+      <c r="R10" s="8">
+        <v>620.9</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
+        <v>313.5</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>51.102</v>
+      </c>
+      <c r="C11" s="8">
+        <v>51.041</v>
+      </c>
+      <c r="D11" s="8">
+        <v>51.029</v>
+      </c>
+      <c r="E11" s="8">
+        <v>51.293</v>
+      </c>
+      <c r="F11" s="8">
+        <v>51.436</v>
+      </c>
+      <c r="G11" s="8">
+        <v>51.377</v>
+      </c>
+      <c r="H11" s="8">
+        <v>51.267</v>
+      </c>
+      <c r="I11" s="8">
+        <v>51.329</v>
+      </c>
+      <c r="J11" s="8">
+        <v>51.375</v>
+      </c>
+      <c r="K11" s="8">
+        <v>51.37</v>
+      </c>
+      <c r="L11" s="8">
+        <v>51.296</v>
+      </c>
+      <c r="M11" s="10">
+        <v>51.288</v>
+      </c>
+      <c r="N11" s="8">
+        <v>51.314</v>
+      </c>
+      <c r="O11" s="8">
+        <v>51.393</v>
+      </c>
+      <c r="P11" s="8">
+        <v>51.445</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>51.271</v>
+      </c>
+      <c r="R11" s="8">
+        <v>51.291</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8">
+        <v>51.385</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1187.16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1052.36</v>
+      </c>
+      <c r="D12" s="8">
+        <v>892.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>959.3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1005.1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>992.1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>937.4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>913.88</v>
+      </c>
+      <c r="J12" s="8">
+        <v>627.0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>560.28</v>
+      </c>
+      <c r="L12" s="8">
+        <v>596.1</v>
+      </c>
+      <c r="M12" s="10">
+        <v>824.4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>546.2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>713.5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>782.4</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>934.2</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1160.1</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
+        <v>780.5</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>51.118</v>
+      </c>
+      <c r="C13" s="8">
+        <v>51.061</v>
+      </c>
+      <c r="D13" s="8">
+        <v>51.02</v>
+      </c>
+      <c r="E13" s="8">
+        <v>51.282</v>
+      </c>
+      <c r="F13" s="8">
+        <v>51.417</v>
+      </c>
+      <c r="G13" s="8">
+        <v>51.386</v>
+      </c>
+      <c r="H13" s="8">
+        <v>51.279</v>
+      </c>
+      <c r="I13" s="8">
+        <v>51.329</v>
+      </c>
+      <c r="J13" s="8">
+        <v>51.386</v>
+      </c>
+      <c r="K13" s="8">
+        <v>51.371</v>
+      </c>
+      <c r="L13" s="8">
+        <v>51.304</v>
+      </c>
+      <c r="M13" s="8">
+        <v>51.267</v>
+      </c>
+      <c r="N13" s="8">
+        <v>51.315</v>
+      </c>
+      <c r="O13" s="8">
+        <v>51.393</v>
+      </c>
+      <c r="P13" s="8">
+        <v>51.445</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>51.338</v>
+      </c>
+      <c r="R13" s="8">
+        <v>51.237</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8">
+        <v>51.399</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="V2:V13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(V2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
         <f>workday("01/03/2022",0)</f>
         <v>44564</v>
       </c>
@@ -3359,7 +5247,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>50.97</v>
@@ -3394,7 +5282,7 @@
       <c r="L3" s="8">
         <v>51.25</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>51.2</v>
       </c>
       <c r="N3" s="8">
@@ -3406,7 +5294,7 @@
       <c r="P3" s="8">
         <v>51.42</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="15">
         <v>51.3</v>
       </c>
       <c r="R3" s="8">
@@ -3421,14 +5309,14 @@
       <c r="U3" s="8">
         <v>51.34</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="11">
         <v>51.2</v>
       </c>
       <c r="W3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>51.0</v>
@@ -3463,7 +5351,7 @@
       <c r="L4" s="8">
         <v>51.34</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="10">
         <v>51.488</v>
       </c>
       <c r="N4" s="8">
@@ -3475,7 +5363,7 @@
       <c r="P4" s="8">
         <v>51.47</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="15">
         <v>51.35</v>
       </c>
       <c r="R4" s="8">
@@ -3490,14 +5378,14 @@
       <c r="U4" s="8">
         <v>51.35</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="12">
         <v>51.23</v>
       </c>
       <c r="W4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8">
         <v>50.95</v>
@@ -3532,7 +5420,7 @@
       <c r="L5" s="8">
         <v>51.225</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="10">
         <v>51.2</v>
       </c>
       <c r="N5" s="8">
@@ -3544,7 +5432,7 @@
       <c r="P5" s="8">
         <v>51.33</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="15">
         <v>51.25</v>
       </c>
       <c r="R5" s="8">
@@ -3559,14 +5447,14 @@
       <c r="U5" s="8">
         <v>51.21</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="12">
         <v>50.95</v>
       </c>
       <c r="W5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>51.0</v>
@@ -3601,7 +5489,7 @@
       <c r="L6" s="8">
         <v>51.255</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="10">
         <v>51.488</v>
       </c>
       <c r="N6" s="8">
@@ -3613,7 +5501,7 @@
       <c r="P6" s="8">
         <v>51.37</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="15">
         <v>51.29</v>
       </c>
       <c r="R6" s="8">
@@ -3628,14 +5516,14 @@
       <c r="U6" s="8">
         <v>51.23</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="12">
         <v>50.95</v>
       </c>
       <c r="W6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>50.977</v>
@@ -3670,7 +5558,7 @@
       <c r="L7" s="8">
         <v>51.29</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="10">
         <v>51.274</v>
       </c>
       <c r="N7" s="8">
@@ -3682,7 +5570,7 @@
       <c r="P7" s="8">
         <v>51.439</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="15">
         <v>51.308</v>
       </c>
       <c r="R7" s="8">
@@ -3697,14 +5585,14 @@
       <c r="U7" s="8">
         <v>51.281</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="12">
         <v>51.17</v>
       </c>
       <c r="W7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>204.9</v>
@@ -3739,7 +5627,7 @@
       <c r="L8" s="8">
         <v>461.8</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="10">
         <v>560.9</v>
       </c>
       <c r="N8" s="8">
@@ -3751,7 +5639,7 @@
       <c r="P8" s="8">
         <v>517.7</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="15">
         <v>495.1</v>
       </c>
       <c r="R8" s="8">
@@ -3766,14 +5654,14 @@
       <c r="U8" s="8">
         <v>508.0</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="11">
         <v>557.5</v>
       </c>
       <c r="W8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>50.995</v>
@@ -3808,7 +5696,7 @@
       <c r="L9" s="8">
         <v>51.263</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="10">
         <v>51.414</v>
       </c>
       <c r="N9" s="8">
@@ -3820,7 +5708,7 @@
       <c r="P9" s="8">
         <v>51.406</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="15">
         <v>51.317</v>
       </c>
       <c r="R9" s="8">
@@ -3835,14 +5723,14 @@
       <c r="U9" s="8">
         <v>51.266</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="14">
         <v>51.083</v>
       </c>
       <c r="W9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>383.8</v>
@@ -3877,7 +5765,7 @@
       <c r="L10" s="8">
         <v>359.1</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="10">
         <v>280.7</v>
       </c>
       <c r="N10" s="8">
@@ -3889,7 +5777,7 @@
       <c r="P10" s="8">
         <v>475.5</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="15">
         <v>332.4</v>
       </c>
       <c r="R10" s="8">
@@ -3904,14 +5792,14 @@
       <c r="U10" s="8">
         <v>616.6</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="12">
         <v>423.29</v>
       </c>
       <c r="W10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>50.989</v>
@@ -3946,7 +5834,7 @@
       <c r="L11" s="8">
         <v>51.278</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="10">
         <v>51.32</v>
       </c>
       <c r="N11" s="8">
@@ -3958,7 +5846,7 @@
       <c r="P11" s="8">
         <v>51.423</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="15">
         <v>51.312</v>
       </c>
       <c r="R11" s="8">
@@ -3973,14 +5861,14 @@
       <c r="U11" s="8">
         <v>51.273</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="14">
         <v>51.135</v>
       </c>
       <c r="W11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>588.7</v>
@@ -4015,7 +5903,7 @@
       <c r="L12" s="8">
         <v>820.9</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="10">
         <v>841.6</v>
       </c>
       <c r="N12" s="8">
@@ -4027,7 +5915,7 @@
       <c r="P12" s="8">
         <v>993.2</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="15">
         <v>827.5</v>
       </c>
       <c r="R12" s="8">
@@ -4042,14 +5930,14 @@
       <c r="U12" s="8">
         <v>1124.6</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="12">
         <v>980.79</v>
       </c>
       <c r="W12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>50.977</v>
@@ -4096,7 +5984,7 @@
       <c r="P13" s="8">
         <v>51.439</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="15">
         <v>51.308</v>
       </c>
       <c r="R13" s="8">
@@ -4111,7 +5999,7 @@
       <c r="U13" s="8">
         <v>51.281</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="14">
         <v>51.175</v>
       </c>
       <c r="W13" s="8"/>

--- a/raw_data/2022 BAP FX Summary.xlsx
+++ b/raw_data/2022 BAP FX Summary.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="20">
   <si>
     <t>TIME</t>
   </si>
@@ -635,10 +635,18 @@
       <c r="Q2" s="3">
         <v>0.3751157407407407</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="R2" s="3">
+        <v>0.37527777777777777</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.3762847222222222</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.3762847222222222</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -689,6 +697,15 @@
       <c r="Q3" s="4">
         <v>55.045</v>
       </c>
+      <c r="R3" s="4">
+        <v>55.25</v>
+      </c>
+      <c r="T3" s="4">
+        <v>55.15</v>
+      </c>
+      <c r="U3" s="4">
+        <v>55.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -739,6 +756,15 @@
       <c r="Q4" s="4">
         <v>55.18</v>
       </c>
+      <c r="R4" s="4">
+        <v>55.35</v>
+      </c>
+      <c r="T4" s="4">
+        <v>55.93</v>
+      </c>
+      <c r="U4" s="4">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -789,6 +815,15 @@
       <c r="Q5" s="4">
         <v>55.045</v>
       </c>
+      <c r="R5" s="4">
+        <v>55.15</v>
+      </c>
+      <c r="T5" s="4">
+        <v>55.15</v>
+      </c>
+      <c r="U5" s="4">
+        <v>55.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -839,6 +874,15 @@
       <c r="Q6" s="4">
         <v>55.09</v>
       </c>
+      <c r="R6" s="4">
+        <v>55.15</v>
+      </c>
+      <c r="T6" s="4">
+        <v>55.9</v>
+      </c>
+      <c r="U6" s="4">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
@@ -889,6 +933,15 @@
       <c r="Q7" s="4">
         <v>55.135</v>
       </c>
+      <c r="R7" s="4">
+        <v>55.263</v>
+      </c>
+      <c r="T7" s="4">
+        <v>55.278</v>
+      </c>
+      <c r="U7" s="4">
+        <v>56.106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
@@ -939,6 +992,15 @@
       <c r="Q8" s="4">
         <v>557.9</v>
       </c>
+      <c r="R8" s="4">
+        <v>532.44</v>
+      </c>
+      <c r="T8" s="4">
+        <v>520.87</v>
+      </c>
+      <c r="U8" s="4">
+        <v>566.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
@@ -989,6 +1051,15 @@
       <c r="Q9" s="4">
         <v>55.118</v>
       </c>
+      <c r="R9" s="4">
+        <v>55.28</v>
+      </c>
+      <c r="T9" s="4">
+        <v>55.596</v>
+      </c>
+      <c r="U9" s="4">
+        <v>56.144</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
@@ -1039,6 +1110,15 @@
       <c r="Q10" s="4">
         <v>216.3</v>
       </c>
+      <c r="R10" s="4">
+        <v>487.6</v>
+      </c>
+      <c r="T10" s="4">
+        <v>292.4</v>
+      </c>
+      <c r="U10" s="4">
+        <v>316.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
@@ -1089,6 +1169,15 @@
       <c r="Q11" s="4">
         <v>55.13</v>
       </c>
+      <c r="R11" s="4">
+        <v>55.271</v>
+      </c>
+      <c r="T11" s="4">
+        <v>55.393</v>
+      </c>
+      <c r="U11" s="4">
+        <v>56.12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
@@ -1139,6 +1228,15 @@
       <c r="Q12" s="4">
         <v>774.2</v>
       </c>
+      <c r="R12" s="4">
+        <v>1020.04</v>
+      </c>
+      <c r="T12" s="4">
+        <v>813.27</v>
+      </c>
+      <c r="U12" s="4">
+        <v>882.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -1188,6 +1286,15 @@
       </c>
       <c r="Q13" s="4">
         <v>55.135</v>
+      </c>
+      <c r="R13" s="4">
+        <v>55.263</v>
+      </c>
+      <c r="T13" s="4">
+        <v>55.278</v>
+      </c>
+      <c r="U13" s="4">
+        <v>56.106</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/2022 BAP FX Summary.xlsx
+++ b/raw_data/2022 BAP FX Summary.xlsx
@@ -647,6 +647,9 @@
       <c r="U2" s="3">
         <v>0.3762847222222222</v>
       </c>
+      <c r="V2" s="3">
+        <v>0.37636574074074075</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -706,6 +709,9 @@
       <c r="U3" s="4">
         <v>55.9</v>
       </c>
+      <c r="V3" s="4">
+        <v>56.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -765,6 +771,9 @@
       <c r="U4" s="4">
         <v>56.3</v>
       </c>
+      <c r="V4" s="4">
+        <v>56.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -824,6 +833,9 @@
       <c r="U5" s="4">
         <v>55.89</v>
       </c>
+      <c r="V5" s="4">
+        <v>55.67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -883,6 +895,9 @@
       <c r="U6" s="4">
         <v>56.2</v>
       </c>
+      <c r="V6" s="4">
+        <v>55.755</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
@@ -942,6 +957,9 @@
       <c r="U7" s="4">
         <v>56.106</v>
       </c>
+      <c r="V7" s="4">
+        <v>55.818</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
@@ -1001,6 +1019,9 @@
       <c r="U8" s="4">
         <v>566.25</v>
       </c>
+      <c r="V8" s="4">
+        <v>431.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
@@ -1060,6 +1081,9 @@
       <c r="U9" s="4">
         <v>56.144</v>
       </c>
+      <c r="V9" s="4">
+        <v>55.811</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
@@ -1119,6 +1143,9 @@
       <c r="U10" s="4">
         <v>316.6</v>
       </c>
+      <c r="V10" s="4">
+        <v>376.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
@@ -1178,6 +1205,9 @@
       <c r="U11" s="4">
         <v>56.12</v>
       </c>
+      <c r="V11" s="4">
+        <v>55.815</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
@@ -1237,6 +1267,9 @@
       <c r="U12" s="4">
         <v>882.85</v>
       </c>
+      <c r="V12" s="4">
+        <v>807.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -1295,6 +1328,9 @@
       </c>
       <c r="U13" s="4">
         <v>56.106</v>
+      </c>
+      <c r="V13" s="4">
+        <v>55.818</v>
       </c>
     </row>
   </sheetData>
